--- a/SRP/Baungarten.xlsx
+++ b/SRP/Baungarten.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tid/s</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>Luft speed</t>
+  </si>
+  <si>
+    <t>Temperatur</t>
+  </si>
+  <si>
+    <t>resulterende acceleration</t>
   </si>
 </sst>
 </file>
@@ -366,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G258"/>
+  <dimension ref="A1:I268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +382,7 @@
     <col min="4" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,5916 +404,7754 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.82</v>
+        <v>9.694685398897654</v>
       </c>
       <c r="C2">
-        <v>9.82</v>
+        <v>9.694685398897654</v>
       </c>
       <c r="D2">
-        <v>38959.58</v>
+        <v>38959.7053146011</v>
       </c>
       <c r="E2">
-        <v>1.3953329106</v>
+        <v>0.00449382858671055</v>
       </c>
       <c r="F2">
         <v>-0</v>
       </c>
       <c r="G2">
-        <v>321.6753477307205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>321.693621016022</v>
+      </c>
+      <c r="H2">
+        <v>-14.69149400000001</v>
+      </c>
+      <c r="I2">
+        <v>9.694685398897654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>29.33978124095598</v>
+        <v>29.08308857198588</v>
       </c>
       <c r="C3">
-        <v>19.51978124095598</v>
+        <v>19.38840317308822</v>
       </c>
       <c r="D3">
-        <v>38940.06021875905</v>
+        <v>38940.31691142802</v>
       </c>
       <c r="E3">
-        <v>0.005323598666800242</v>
+        <v>0.00450007794150628</v>
       </c>
       <c r="F3">
-        <v>-0.1694112407051948</v>
+        <v>-0.1395730010098713</v>
       </c>
       <c r="G3">
-        <v>321.6390217832057</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>321.6755809255952</v>
+      </c>
+      <c r="H3">
+        <v>-14.72048110934271</v>
+      </c>
+      <c r="I3">
+        <v>9.693717774190565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>58.55581828198852</v>
+        <v>58.16226661611751</v>
       </c>
       <c r="C4">
-        <v>29.21603704103254</v>
+        <v>29.07917804413163</v>
       </c>
       <c r="D4">
-        <v>38910.84418171801</v>
+        <v>38911.23773338388</v>
       </c>
       <c r="E4">
-        <v>0.005338472703040285</v>
+        <v>0.00451260422000965</v>
       </c>
       <c r="F4">
-        <v>-0.6712446830899301</v>
+        <v>-0.5597901717514734</v>
       </c>
       <c r="G4">
-        <v>321.5846436180933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>321.6394995100788</v>
+      </c>
+      <c r="H4">
+        <v>-14.77845243483023</v>
+      </c>
+      <c r="I4">
+        <v>9.690774871043411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>97.46220819284216</v>
+        <v>96.92727389996412</v>
       </c>
       <c r="C5">
-        <v>38.90638991085363</v>
+        <v>38.76500728384662</v>
       </c>
       <c r="D5">
-        <v>38871.93779180716</v>
+        <v>38872.47272610004</v>
       </c>
       <c r="E5">
-        <v>0.005360812953802844</v>
+        <v>0.004531462118984246</v>
       </c>
       <c r="F5">
-        <v>-1.510035673005734</v>
+        <v>-1.26449334144603</v>
       </c>
       <c r="G5">
-        <v>321.5122150659293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>321.5853761747512</v>
+      </c>
+      <c r="H5">
+        <v>-14.8653991771822</v>
+      </c>
+      <c r="I5">
+        <v>9.685829239714993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>146.0506205335643</v>
+        <v>145.3711191961177</v>
       </c>
       <c r="C6">
-        <v>48.58841234072213</v>
+        <v>48.44384529615363</v>
       </c>
       <c r="D6">
-        <v>38823.34937946644</v>
+        <v>38824.02888080388</v>
       </c>
       <c r="E6">
-        <v>0.005390708212464799</v>
+        <v>0.004556733855557536</v>
       </c>
       <c r="F6">
-        <v>-2.692784722440809</v>
+        <v>-2.259682088935075</v>
       </c>
       <c r="G6">
-        <v>321.4217394385446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>321.5132110159644</v>
+      </c>
+      <c r="H6">
+        <v>-14.9813065489609</v>
+      </c>
+      <c r="I6">
+        <v>9.678838012307004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>204.3102291585416</v>
+        <v>203.4847070027429</v>
       </c>
       <c r="C7">
-        <v>58.25960862497732</v>
+        <v>58.11358780662515</v>
       </c>
       <c r="D7">
-        <v>38765.08977084146</v>
+        <v>38765.91529299726</v>
       </c>
       <c r="E7">
-        <v>0.005428277251420911</v>
+        <v>0.004588529754686275</v>
       </c>
       <c r="F7">
-        <v>-4.229035960311557</v>
+        <v>-3.553568645334353</v>
       </c>
       <c r="G7">
-        <v>321.3132216596327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>321.4230049016138</v>
+      </c>
+      <c r="H7">
+        <v>-15.1261536463964</v>
+      </c>
+      <c r="I7">
+        <v>9.669742510471531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>272.2276253380847</v>
+        <v>271.2567625283309</v>
       </c>
       <c r="C8">
-        <v>67.91739617954309</v>
+        <v>67.77205552558794</v>
       </c>
       <c r="D8">
-        <v>38697.17237466192</v>
+        <v>38698.14323747167</v>
       </c>
       <c r="E8">
-        <v>0.005473669499827701</v>
+        <v>0.004626989036731887</v>
       </c>
       <c r="F8">
-        <v>-6.130948056613061</v>
+        <v>-5.156651571729361</v>
       </c>
       <c r="G8">
-        <v>321.1866684317014</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>321.3147595818081</v>
+      </c>
+      <c r="H8">
+        <v>-15.29991327393822</v>
+      </c>
+      <c r="I8">
+        <v>9.658467718962783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>349.7867115662754</v>
+        <v>348.6737396752852</v>
       </c>
       <c r="C9">
-        <v>77.55908622819068</v>
+        <v>77.41697714695439</v>
       </c>
       <c r="D9">
-        <v>38619.61328843373</v>
+        <v>38620.72626032471</v>
       </c>
       <c r="E9">
-        <v>0.005527065892826894</v>
+        <v>0.004672280812002642</v>
       </c>
       <c r="F9">
-        <v>-8.413382565253279</v>
+        <v>-7.081808725027113</v>
       </c>
       <c r="G9">
-        <v>321.0420884408455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>321.1884778308962</v>
+      </c>
+      <c r="H9">
+        <v>-15.50255171995973</v>
+      </c>
+      <c r="I9">
+        <v>9.644921621366448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>436.9685752989799</v>
+        <v>435.7197112158817</v>
       </c>
       <c r="C10">
-        <v>87.1818637327045</v>
+        <v>87.04597154059647</v>
       </c>
       <c r="D10">
-        <v>38532.43142470102</v>
+        <v>38533.68028878412</v>
       </c>
       <c r="E10">
-        <v>0.005588679896137616</v>
+        <v>0.004724605290857621</v>
       </c>
       <c r="F10">
-        <v>-11.09400973220085</v>
+        <v>-9.344410122721468</v>
       </c>
       <c r="G10">
-        <v>320.8794926010797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>321.0441636223211</v>
+      </c>
+      <c r="H10">
+        <v>-15.73402848162911</v>
+      </c>
+      <c r="I10">
+        <v>9.628994393642069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>533.7513417412611</v>
+        <v>532.376240206979</v>
       </c>
       <c r="C11">
-        <v>96.78276644228123</v>
+        <v>96.65652899109723</v>
       </c>
       <c r="D11">
-        <v>38435.64865825874</v>
+        <v>38437.02375979302</v>
       </c>
       <c r="E11">
-        <v>0.005658758710530763</v>
+        <v>0.004784195219751096</v>
       </c>
       <c r="F11">
-        <v>-14.1934317488527</v>
+        <v>-11.96245140309121</v>
       </c>
       <c r="G11">
-        <v>320.6988943402716</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>320.8818223380863</v>
+      </c>
+      <c r="H11">
+        <v>-15.99429593653549</v>
+      </c>
+      <c r="I11">
+        <v>9.610557450500767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>640.1100046796206</v>
+        <v>638.6222315372227</v>
       </c>
       <c r="C12">
-        <v>106.3586629383595</v>
+        <v>106.2459913302436</v>
       </c>
       <c r="D12">
-        <v>38329.28999532038</v>
+        <v>38330.77776846278</v>
       </c>
       <c r="E12">
-        <v>0.005737584661252915</v>
+        <v>0.004851317555429432</v>
       </c>
       <c r="F12">
-        <v>-17.73532332877382</v>
+        <v>-14.95670864649975</v>
       </c>
       <c r="G12">
-        <v>320.500309930018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>320.7014610149588</v>
+      </c>
+      <c r="H12">
+        <v>-16.28329895821886</v>
+      </c>
+      <c r="I12">
+        <v>9.589462339146374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>756.0162342326076</v>
+        <v>754.4337623420409</v>
       </c>
       <c r="C13">
-        <v>115.9062295529871</v>
+        <v>115.8115308048183</v>
       </c>
       <c r="D13">
-        <v>38213.38376576739</v>
+        <v>38214.96623765796</v>
       </c>
       <c r="E13">
-        <v>0.00582547677793053</v>
+        <v>0.004926275391376748</v>
       </c>
       <c r="F13">
-        <v>-21.74658934010062</v>
+        <v>-18.35091537006824</v>
       </c>
       <c r="G13">
-        <v>320.2837588621091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>320.5030886298798</v>
+      </c>
+      <c r="H13">
+        <v>-16.6009744722963</v>
+      </c>
+      <c r="I13">
+        <v>9.565539474574653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>881.4381602747798</v>
+        <v>879.7838898573652</v>
       </c>
       <c r="C14">
-        <v>125.4219260421721</v>
+        <v>125.3501275153243</v>
       </c>
       <c r="D14">
-        <v>38087.96183972522</v>
+        <v>38089.61611014263</v>
       </c>
       <c r="E14">
-        <v>0.005922792570832369</v>
+        <v>0.00500941015254148</v>
       </c>
       <c r="F14">
-        <v>-26.25753902548115</v>
+        <v>-22.17196252460982</v>
       </c>
       <c r="G14">
-        <v>320.0492642745358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>320.2867164274209</v>
+      </c>
+      <c r="H14">
+        <v>-16.94725094940272</v>
+      </c>
+      <c r="I14">
+        <v>9.53859671050601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1016.340130175693</v>
+        <v>1014.642435112879</v>
       </c>
       <c r="C15">
-        <v>134.9019699009131</v>
+        <v>134.8585452555132</v>
       </c>
       <c r="D15">
-        <v>37953.05986982431</v>
+        <v>37954.75756488712</v>
       </c>
       <c r="E15">
-        <v>0.006029930009569219</v>
+        <v>0.005101104076353847</v>
       </c>
       <c r="F15">
-        <v>-31.30207607442143</v>
+        <v>-26.45012230000982</v>
       </c>
       <c r="G15">
-        <v>319.7968534302897</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>320.0523582925117</v>
+      </c>
+      <c r="H15">
+        <v>-17.32204783067354</v>
+      </c>
+      <c r="I15">
+        <v>9.508417740188962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1160.682439390022</v>
+        <v>1158.975740690229</v>
       </c>
       <c r="C16">
-        <v>144.3423092143289</v>
+        <v>144.33330557735</v>
       </c>
       <c r="D16">
-        <v>37808.71756060998</v>
+        <v>37810.42425930977</v>
       </c>
       <c r="E16">
-        <v>0.006147329710328454</v>
+        <v>0.00520178300005739</v>
       </c>
       <c r="F16">
-        <v>-36.91790346551786</v>
+        <v>-31.21929647160894</v>
       </c>
       <c r="G16">
-        <v>319.5265582525058</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>319.8000311720632</v>
+      </c>
+      <c r="H16">
+        <v>-17.72527488098751</v>
+      </c>
+      <c r="I16">
+        <v>9.474760321836794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1314.421033340229</v>
+        <v>1312.746400592031</v>
       </c>
       <c r="C17">
-        <v>153.7385939502076</v>
+        <v>153.770659901802</v>
       </c>
       <c r="D17">
-        <v>37654.97896665977</v>
+        <v>37656.65359940797</v>
       </c>
       <c r="E17">
-        <v>0.006275477337533151</v>
+        <v>0.005311919476403192</v>
       </c>
       <c r="F17">
-        <v>-43.14674155254543</v>
+        <v>-36.51728988118362</v>
       </c>
       <c r="G17">
-        <v>319.238415919778</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>319.5297555495397</v>
+      </c>
+      <c r="H17">
+        <v>-18.15683146466378</v>
+      </c>
+      <c r="I17">
+        <v>9.437354324452025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1477.507178953397</v>
+        <v>1475.912960085211</v>
       </c>
       <c r="C18">
-        <v>163.0861456131679</v>
+        <v>163.1665594931806</v>
       </c>
       <c r="D18">
-        <v>37491.8928210466</v>
+        <v>37493.48703991479</v>
       </c>
       <c r="E18">
-        <v>0.006414906225329663</v>
+        <v>0.005432036241768799</v>
       </c>
       <c r="F18">
-        <v>-50.03455731096201</v>
+        <v>-42.38610942410435</v>
       </c>
       <c r="G18">
-        <v>318.9324695257378</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>319.2415559769699</v>
+      </c>
+      <c r="H18">
+        <v>-18.61660573777019</v>
+      </c>
+      <c r="I18">
+        <v>9.395899591378562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1649.887104153839</v>
+        <v>1648.429583199646</v>
       </c>
       <c r="C19">
-        <v>172.3799252004418</v>
+        <v>172.5166231144352</v>
       </c>
       <c r="D19">
-        <v>37319.51289584616</v>
+        <v>37320.97041680035</v>
       </c>
       <c r="E19">
-        <v>0.006566200223483257</v>
+        <v>0.005562710062724126</v>
       </c>
       <c r="F19">
-        <v>-57.6318019702333</v>
+        <v>-48.87228858751644</v>
       </c>
       <c r="G19">
-        <v>318.6087688072245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>318.9354616693443</v>
+      </c>
+      <c r="H19">
+        <v>-19.10447375065478</v>
+      </c>
+      <c r="I19">
+        <v>9.350063621254584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1831.501603578987</v>
+        <v>1830.24568538339</v>
       </c>
       <c r="C20">
-        <v>181.6144994251482</v>
+        <v>181.8161021837435</v>
       </c>
       <c r="D20">
-        <v>37137.89839642101</v>
+        <v>37139.15431461662</v>
       </c>
       <c r="E20">
-        <v>0.006729996771026001</v>
+        <v>0.005704575988921645</v>
       </c>
       <c r="F20">
-        <v>-65.99365341064926</v>
+        <v>-56.02723712665197</v>
       </c>
       <c r="G20">
-        <v>318.2673709455646</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>318.6115071668186</v>
+      </c>
+      <c r="H20">
+        <v>-19.62029845376695</v>
+      </c>
+      <c r="I20">
+        <v>9.29947906930828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2022.285608785103</v>
+        <v>2021.305528643502</v>
       </c>
       <c r="C21">
-        <v>190.7840052061154</v>
+        <v>191.0598432601125</v>
       </c>
       <c r="D21">
-        <v>36947.1143912149</v>
+        <v>36948.0944713565</v>
       </c>
       <c r="E21">
-        <v>0.00690699019927323</v>
+        <v>0.005858332041866065</v>
       </c>
       <c r="F21">
-        <v>-75.18025867747728</v>
+        <v>-63.90761484603028</v>
       </c>
       <c r="G21">
-        <v>317.90834144562</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>318.2697330706169</v>
+      </c>
+      <c r="H21">
+        <v>-20.16392859929633</v>
+      </c>
+      <c r="I21">
+        <v>9.243741076369043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2222.167721250384</v>
+        <v>2221.547776342442</v>
       </c>
       <c r="C22">
-        <v>199.8821124652818</v>
+        <v>200.2422476989403</v>
       </c>
       <c r="D22">
-        <v>36747.23227874962</v>
+        <v>36747.85222365756</v>
       </c>
       <c r="E22">
-        <v>0.007097935263507768</v>
+        <v>0.006024744370527819</v>
       </c>
       <c r="F22">
-        <v>-85.25697073568027</v>
+        <v>-72.57572763167933</v>
       </c>
       <c r="G22">
-        <v>317.5317550973286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>317.9101868590091</v>
+      </c>
+      <c r="H22">
+        <v>-20.73519753064409</v>
+      </c>
+      <c r="I22">
+        <v>9.182404438827769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2431.069706576477</v>
+        <v>2430.905004681772</v>
       </c>
       <c r="C23">
-        <v>208.9019853260932</v>
+        <v>209.3572283393292</v>
       </c>
       <c r="D23">
-        <v>36538.33029342353</v>
+        <v>36538.49499531823</v>
       </c>
       <c r="E23">
-        <v>0.00730365089961745</v>
+        <v>0.006204652905784672</v>
       </c>
       <c r="F23">
-        <v>-96.29457213003342</v>
+        <v>-82.09994281518908</v>
       </c>
       <c r="G23">
-        <v>317.1376970244399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>317.5329237902015</v>
+      </c>
+      <c r="H23">
+        <v>-21.33392185126391</v>
+      </c>
+      <c r="I23">
+        <v>9.114980640388907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2648.905948447405</v>
+        <v>2649.303167797284</v>
       </c>
       <c r="C24">
-        <v>217.836241870928</v>
+        <v>218.3981631155122</v>
       </c>
       <c r="D24">
-        <v>36320.4940515526</v>
+        <v>36320.09683220272</v>
       </c>
       <c r="E24">
-        <v>0.007525024198138369</v>
+        <v>0.006398977546156992</v>
       </c>
       <c r="F24">
-        <v>-108.3694765043278</v>
+        <v>-92.55511958868337</v>
       </c>
       <c r="G24">
-        <v>316.7262638249985</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>317.1380078994238</v>
+      </c>
+      <c r="H24">
+        <v>-21.9598999639985</v>
+      </c>
+      <c r="I24">
+        <v>9.040934776183033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2875.582861141773</v>
+        <v>2876.661013324872</v>
       </c>
       <c r="C25">
-        <v>226.676912694368</v>
+        <v>227.3578455275887</v>
       </c>
       <c r="D25">
-        <v>36093.81713885823</v>
+        <v>36092.73898667513</v>
       </c>
       <c r="E25">
-        <v>0.00776301458336963</v>
+        <v>0.006608724907052756</v>
       </c>
       <c r="F25">
-        <v>-121.5638969484202</v>
+        <v>-104.0230484722631</v>
       </c>
       <c r="G25">
-        <v>316.2975648078444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>316.7255130978964</v>
+      </c>
+      <c r="H25">
+        <v>-22.61291047171387</v>
+      </c>
+      <c r="I25">
+        <v>8.959682412076454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>3110.998259725945</v>
+        <v>3112.889445289763</v>
       </c>
       <c r="C26">
-        <v>235.4153985841711</v>
+        <v>236.2284319648906</v>
       </c>
       <c r="D26">
-        <v>35858.40174027406</v>
+        <v>35856.51055471024</v>
       </c>
       <c r="E26">
-        <v>0.008018658179337113</v>
+        <v>0.006834995664525377</v>
       </c>
       <c r="F26">
-        <v>-135.9659678677149</v>
+        <v>-116.5928916952027</v>
       </c>
       <c r="G26">
-        <v>315.8517233289208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>316.2955243816951</v>
+      </c>
+      <c r="H26">
+        <v>-23.29271042984136</v>
+      </c>
+      <c r="I26">
+        <v>8.870586437301885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>3355.040687501135</v>
+        <v>3357.890831242023</v>
       </c>
       <c r="C27">
-        <v>244.0424277751908</v>
+        <v>245.0013859522595</v>
       </c>
       <c r="D27">
-        <v>35614.35931249887</v>
+        <v>35611.50916875798</v>
       </c>
       <c r="E27">
-        <v>0.00829307233723791</v>
+        <v>0.007078992522079529</v>
       </c>
       <c r="F27">
-        <v>-151.6698044999471</v>
+        <v>-130.3616137152905</v>
       </c>
       <c r="G27">
-        <v>315.3888782304893</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>315.8481391587686</v>
+      </c>
+      <c r="H27">
+        <v>-23.9990334414164</v>
+      </c>
+      <c r="I27">
+        <v>8.772953987368954</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>3607.588700856429</v>
+        <v>3611.558250731443</v>
       </c>
       <c r="C28">
-        <v>252.5480133552939</v>
+        <v>253.6674194894201</v>
       </c>
       <c r="D28">
-        <v>35361.81129914357</v>
+        <v>35357.84174926856</v>
       </c>
       <c r="E28">
-        <v>0.008587460290430239</v>
+        <v>0.007342028824988067</v>
       </c>
       <c r="F28">
-        <v>-168.7754813463826</v>
+        <v>-145.4343878881467</v>
       </c>
       <c r="G28">
-        <v>314.9091853853893</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>315.3834687024676</v>
+      </c>
+      <c r="H28">
+        <v>-24.73158758541365</v>
+      </c>
+      <c r="I28">
+        <v>8.66603353716056</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>3868.510112414836</v>
+        <v>3873.774682512623</v>
       </c>
       <c r="C29">
-        <v>260.9214115584073</v>
+        <v>262.2164317811808</v>
       </c>
       <c r="D29">
-        <v>35100.88988758517</v>
+        <v>35095.62531748738</v>
       </c>
       <c r="E29">
-        <v>0.008903115892883656</v>
+        <v>0.007625537840484583</v>
       </c>
       <c r="F29">
-        <v>-187.3889076660104</v>
+        <v>-161.9249614288428</v>
       </c>
       <c r="G29">
-        <v>314.4128193472038</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>314.9016397398675</v>
+      </c>
+      <c r="H29">
+        <v>-25.490053169687</v>
+      </c>
+      <c r="I29">
+        <v>8.549012291760711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>4137.661194274498</v>
+        <v>4144.412128329257</v>
       </c>
       <c r="C30">
-        <v>269.1510818596611</v>
+        <v>270.6374458166339</v>
       </c>
       <c r="D30">
-        <v>34831.7388057255</v>
+        <v>34824.98787167075</v>
       </c>
       <c r="E30">
-        <v>0.009241428385117179</v>
+        <v>0.00793108271357091</v>
       </c>
       <c r="F30">
-        <v>-207.6215748563571</v>
+        <v>-179.9559562031921</v>
       </c>
       <c r="G30">
-        <v>313.8999751055411</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>314.4027961828498</v>
+      </c>
+      <c r="H30">
+        <v>-26.27408030071274</v>
+      </c>
+      <c r="I30">
+        <v>8.421014035453069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>4414.885844266507</v>
+        <v>4423.330671783854</v>
       </c>
       <c r="C31">
-        <v>277.2246499920091</v>
+        <v>278.9185434545974</v>
       </c>
       <c r="D31">
-        <v>34554.51415573349</v>
+        <v>34546.06932821614</v>
       </c>
       <c r="E31">
-        <v>0.009603887117895582</v>
+        <v>0.008260367096442296</v>
       </c>
       <c r="F31">
-        <v>-229.5901471034861</v>
+        <v>-199.6590774774911</v>
       </c>
       <c r="G31">
-        <v>313.3708699435662</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>313.8871010092844</v>
+      </c>
+      <c r="H31">
+        <v>-27.08328626370448</v>
+      </c>
+      <c r="I31">
+        <v>8.28109763796351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>4700.014719499067</v>
+        <v>4710.377471700181</v>
       </c>
       <c r="C32">
-        <v>285.1288752325599</v>
+        <v>287.046799916327</v>
       </c>
       <c r="D32">
-        <v>34269.38528050094</v>
+        <v>34259.02252829982</v>
       </c>
       <c r="E32">
-        <v>0.009992086148228753</v>
+        <v>0.008615246434011056</v>
       </c>
       <c r="F32">
-        <v>-253.4158632630496</v>
+        <v>-221.1751964964306</v>
       </c>
       <c r="G32">
-        <v>312.8257453923423</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>313.3547383006407</v>
+      </c>
+      <c r="H32">
+        <v>-27.91725270863374</v>
+      </c>
+      <c r="I32">
+        <v>8.128256461729553</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>4992.864343057679</v>
+        <v>5005.385690581345</v>
       </c>
       <c r="C33">
-        <v>292.8496235586122</v>
+        <v>295.0082188811646</v>
       </c>
       <c r="D33">
-        <v>33976.53565694232</v>
+        <v>33964.01430941866</v>
       </c>
       <c r="E33">
-        <v>0.01040772860448741</v>
+        <v>0.00899773986793847</v>
       </c>
       <c r="F33">
-        <v>-279.2237147280582</v>
+        <v>-244.6542656391363</v>
       </c>
       <c r="G33">
-        <v>312.2648692734242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>312.8059154408535</v>
+      </c>
+      <c r="H33">
+        <v>-28.77552264038354</v>
+      </c>
+      <c r="I33">
+        <v>7.961418964837637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>5293.236191602313</v>
+        <v>5308.173360313448</v>
       </c>
       <c r="C34">
-        <v>300.3718485446331</v>
+        <v>302.7876697321029</v>
       </c>
       <c r="D34">
-        <v>33676.16380839769</v>
+        <v>33661.22663968655</v>
       </c>
       <c r="E34">
-        <v>0.01085263069775079</v>
+        <v>0.00941004269612449</v>
       </c>
       <c r="F34">
-        <v>-307.1413613109309</v>
+        <v>-270.2550169701557</v>
       </c>
       <c r="G34">
-        <v>311.6885378174155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>312.2408654791662</v>
+      </c>
+      <c r="H34">
+        <v>-29.65759721483822</v>
+      </c>
+      <c r="I34">
+        <v>7.779450850938276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>5600.915773758599</v>
+        <v>5618.542189224538</v>
       </c>
       <c r="C35">
-        <v>307.6795821562865</v>
+        <v>310.3688289110897</v>
       </c>
       <c r="D35">
-        <v>33368.4842262414</v>
+        <v>33350.85781077547</v>
       </c>
       <c r="E35">
-        <v>0.01132872523499622</v>
+        <v>0.009854539292849624</v>
       </c>
       <c r="F35">
-        <v>-337.2977452621884</v>
+        <v>-298.1443863875553</v>
       </c>
       <c r="G35">
-        <v>311.0970778418198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>311.6598496568433</v>
+      </c>
+      <c r="H35">
+        <v>-30.56293234733721</v>
+      </c>
+      <c r="I35">
+        <v>7.581159178986828</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>5915.671711645706</v>
+        <v>5936.2763170459</v>
       </c>
       <c r="C36">
-        <v>314.7559378871063</v>
+        <v>317.7341278213622</v>
       </c>
       <c r="D36">
-        <v>33053.72828835429</v>
+        <v>33033.1236829541</v>
       </c>
       <c r="E36">
-        <v>0.01183806446673254</v>
+        <v>0.01033381635578414</v>
       </c>
       <c r="F36">
-        <v>-369.8213629011571</v>
+        <v>-328.4965965250739</v>
       </c>
       <c r="G36">
-        <v>310.4908489664463</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>311.0631600939416</v>
+      </c>
+      <c r="H36">
+        <v>-31.49093514578136</v>
+      </c>
+      <c r="I36">
+        <v>7.3652989102725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>6237.254840610457</v>
+        <v>6261.141027302211</v>
       </c>
       <c r="C37">
-        <v>321.5831289647512</v>
+        <v>324.8647102563109</v>
       </c>
       <c r="D37">
-        <v>32732.14515938954</v>
+        <v>32708.25897269779</v>
       </c>
       <c r="E37">
-        <v>0.01238282207766737</v>
+        <v>0.01085067629896925</v>
       </c>
       <c r="F37">
-        <v>-404.8381544763967</v>
+        <v>-361.4918225012347</v>
       </c>
       <c r="G37">
-        <v>309.870245838868</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>310.4511226276013</v>
+      </c>
+      <c r="H37">
+        <v>-32.44096018796725</v>
+      </c>
+      <c r="I37">
+        <v>7.130582434948652</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>6565.397345220177</v>
+        <v>6592.881430239247</v>
       </c>
       <c r="C38">
-        <v>328.1425046097206</v>
+        <v>331.7404029370366</v>
       </c>
       <c r="D38">
-        <v>32404.00265477983</v>
+        <v>32376.51856976075</v>
       </c>
       <c r="E38">
-        <v>0.01296529410471969</v>
+        <v>0.01140815055483649</v>
       </c>
       <c r="F38">
-        <v>-442.4689764299374</v>
+        <v>-397.3143561468279</v>
       </c>
       <c r="G38">
-        <v>309.2357003359925</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>309.8240997874082</v>
+      </c>
+      <c r="H38">
+        <v>-33.41230567163362</v>
+      </c>
+      <c r="I38">
+        <v>6.875692680725729</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>6899.811952757866</v>
+        <v>6931.221133632504</v>
       </c>
       <c r="C39">
-        <v>334.4146075376894</v>
+        <v>338.3397033932559</v>
       </c>
       <c r="D39">
-        <v>32069.58804724213</v>
+        <v>32038.1788663675</v>
       </c>
       <c r="E39">
-        <v>0.01358789854316326</v>
+        <v>0.01200951248278543</v>
       </c>
       <c r="F39">
-        <v>-482.8266269145316</v>
+        <v>-436.150177367375</v>
       </c>
       <c r="G39">
-        <v>308.5876837007694</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>309.1824938861243</v>
+      </c>
+      <c r="H39">
+        <v>-34.40420947641536</v>
+      </c>
+      <c r="I39">
+        <v>6.599300456219272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7240.191208787416</v>
+        <v>7275.860923737846</v>
       </c>
       <c r="C40">
-        <v>340.3792560295499</v>
+        <v>344.6397901053424</v>
       </c>
       <c r="D40">
-        <v>31729.20879121259</v>
+        <v>31693.53907626215</v>
       </c>
       <c r="E40">
-        <v>0.01425317338025891</v>
+        <v>0.0126582895065778</v>
       </c>
       <c r="F40">
-        <v>-526.0124059621379</v>
+        <v>-478.1838370092152</v>
       </c>
       <c r="G40">
-        <v>307.926708565536</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>308.5267501953431</v>
+      </c>
+      <c r="H40">
+        <v>-35.4158451895612</v>
+      </c>
+      <c r="I40">
+        <v>6.300086712086503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7586.2068627052</v>
+        <v>7626.477484246571</v>
       </c>
       <c r="C41">
-        <v>346.0156539177839</v>
+        <v>350.6165605087257</v>
       </c>
       <c r="D41">
-        <v>31383.1931372948</v>
+        <v>31342.92251575343</v>
       </c>
       <c r="E41">
-        <v>0.01496377277811213</v>
+        <v>0.01335827401819502</v>
       </c>
       <c r="F41">
-        <v>-572.1122068796228</v>
+        <v>-523.5945555582255</v>
       </c>
       <c r="G41">
-        <v>307.2533308056998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>307.8573601652959</v>
+      </c>
+      <c r="H41">
+        <v>-36.44631816197617</v>
+      </c>
+      <c r="I41">
+        <v>5.976770403383284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7937.509394421214</v>
+        <v>7982.722187347916</v>
       </c>
       <c r="C42">
-        <v>351.3025317160137</v>
+        <v>356.2447031013447</v>
       </c>
       <c r="D42">
-        <v>31031.89060557879</v>
+        <v>30986.67781265209</v>
       </c>
       <c r="E42">
-        <v>0.01572246111575667</v>
+        <v>0.01411353249302257</v>
       </c>
       <c r="F42">
-        <v>-621.1921559320277</v>
+        <v>-572.5514481561629</v>
       </c>
       <c r="G42">
-        <v>306.5681511596345</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>307.1748646360407</v>
+      </c>
+      <c r="H42">
+        <v>-37.49466167789724</v>
+      </c>
+      <c r="I42">
+        <v>5.628142592618972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>8293.727716230276</v>
+        <v>8344.219997777471</v>
       </c>
       <c r="C43">
-        <v>356.2183218090631</v>
+        <v>361.497810429555</v>
       </c>
       <c r="D43">
-        <v>30675.67228376972</v>
+        <v>30625.18000222253</v>
       </c>
       <c r="E43">
-        <v>0.01653210459706127</v>
+        <v>0.01492841216256308</v>
       </c>
       <c r="F43">
-        <v>-673.2938436588447</v>
+        <v>-625.2078010909972</v>
       </c>
       <c r="G43">
-        <v>305.8718165432048</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>306.4798569736612</v>
+      </c>
+      <c r="H43">
+        <v>-38.55983334017027</v>
+      </c>
+      <c r="I43">
+        <v>5.253107328210358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>8654.46908631121</v>
+        <v>8710.568537855774</v>
       </c>
       <c r="C44">
-        <v>360.7413700809337</v>
+        <v>366.3485400783023</v>
       </c>
       <c r="D44">
-        <v>30314.93091368879</v>
+        <v>30258.83146214423</v>
       </c>
       <c r="E44">
-        <v>0.01739566013874128</v>
+        <v>0.01580754449006359</v>
       </c>
       <c r="F44">
-        <v>-728.4292234280368</v>
+        <v>-681.6943507209</v>
       </c>
       <c r="G44">
-        <v>305.1650209806893</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>305.7729860500119</v>
+      </c>
+      <c r="H44">
+        <v>-39.64071179335464</v>
+      </c>
+      <c r="I44">
+        <v>4.850729648747305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>9019.319271858516</v>
+        <v>9081.337368714134</v>
       </c>
       <c r="C45">
-        <v>364.8501855473057</v>
+        <v>370.76883085836</v>
       </c>
       <c r="D45">
-        <v>29950.08072814149</v>
+        <v>29888.06263128587</v>
       </c>
       <c r="E45">
-        <v>0.01831616127449309</v>
+        <v>0.01675584459698065</v>
       </c>
       <c r="F45">
-        <v>-786.5752907543844</v>
+        <v>-742.1115554741361</v>
       </c>
       <c r="G45">
-        <v>304.4485060686093</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>305.0549589683033</v>
+      </c>
+      <c r="H45">
+        <v>-40.73609392818877</v>
+      </c>
+      <c r="I45">
+        <v>4.420290780057691</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>9387.843000302564</v>
+        <v>9456.067549763491</v>
       </c>
       <c r="C46">
-        <v>368.5237284440474</v>
+        <v>374.730181049358</v>
       </c>
       <c r="D46">
-        <v>29581.55699969744</v>
+        <v>29513.33245023651</v>
       </c>
       <c r="E46">
-        <v>0.01929670085005519</v>
+        <v>0.01777850570168868</v>
       </c>
       <c r="F46">
-        <v>-847.6686995161905</v>
+        <v>-806.5209077187745</v>
       </c>
       <c r="G46">
-        <v>303.7230608857512</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>304.3265434199339</v>
+      </c>
+      <c r="H46">
+        <v>-41.84469273245527</v>
+      </c>
+      <c r="I46">
+        <v>3.961350190997883</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>9759.584736085846</v>
+        <v>9834.271544453799</v>
       </c>
       <c r="C47">
-        <v>371.7417357832817</v>
+        <v>378.2039946903078</v>
       </c>
       <c r="D47">
-        <v>29209.81526391416</v>
+        <v>29135.1284555462</v>
       </c>
       <c r="E47">
-        <v>0.02034041034262545</v>
+        <v>0.01888098756617693</v>
       </c>
       <c r="F47">
-        <v>-911.6005166781512</v>
+        <v>-874.9354069114459</v>
       </c>
       <c r="G47">
-        <v>302.9895212621997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>303.5885695412351</v>
+      </c>
+      <c r="H47">
+        <v>-42.96513597379284</v>
+      </c>
+      <c r="I47">
+        <v>3.473813640949864</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>10134.06981770921</v>
+        <v>10215.43354482561</v>
       </c>
       <c r="C48">
-        <v>374.4850816233612</v>
+        <v>381.1620003718114</v>
       </c>
       <c r="D48">
-        <v>28835.3301822908</v>
+        <v>28753.96645517439</v>
       </c>
       <c r="E48">
-        <v>0.02145043571878516</v>
+        <v>0.02006899791394258</v>
       </c>
       <c r="F48">
-        <v>-978.2113626636847</v>
+        <v>-947.3094093072982</v>
       </c>
       <c r="G48">
-        <v>302.2487683232436</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>302.8419311232612</v>
+      </c>
+      <c r="H48">
+        <v>-44.09596591791686</v>
+      </c>
+      <c r="I48">
+        <v>2.958005681503607</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>10510.80598494497</v>
+        <v>10599.0102894725</v>
       </c>
       <c r="C49">
-        <v>376.7361672357673</v>
+        <v>383.5767446468869</v>
       </c>
       <c r="D49">
-        <v>28458.59401505503</v>
+        <v>28370.3897105275</v>
       </c>
       <c r="E49">
-        <v>0.02262990984922382</v>
+        <v>0.02134846579727857</v>
       </c>
       <c r="F49">
-        <v>-1047.287226258987</v>
+        <v>-1023.528181477163</v>
       </c>
       <c r="G49">
-        <v>301.5017262312901</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>302.0875860148327</v>
+      </c>
+      <c r="H49">
+        <v>-45.23564029902857</v>
+      </c>
+      <c r="I49">
+        <v>2.414744275075504</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>10889.28531899725</v>
+        <v>10984.43244841216</v>
       </c>
       <c r="C50">
-        <v>378.4793340522742</v>
+        <v>385.4221589396604</v>
       </c>
       <c r="D50">
-        <v>28080.11468100275</v>
+        <v>27984.96755158784</v>
       </c>
       <c r="E50">
-        <v>0.02388192162607667</v>
+        <v>0.022725505970574</v>
       </c>
       <c r="F50">
-        <v>-1118.556276016411</v>
+        <v>-1103.397610940526</v>
       </c>
       <c r="G50">
-        <v>300.749359061059</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>301.3265555504271</v>
+      </c>
+      <c r="H50">
+        <v>-46.38253476552278</v>
+      </c>
+      <c r="I50">
+        <v>1.845414292773428</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>11268.98660883896</v>
+        <v>11371.10664305928</v>
       </c>
       <c r="C51">
-        <v>379.701289841709</v>
+        <v>386.6741946471184</v>
       </c>
       <c r="D51">
-        <v>27700.41339116104</v>
+        <v>27598.29335694073</v>
       </c>
       <c r="E51">
-        <v>0.02520948207769731</v>
+        <v>0.02420637348432253</v>
       </c>
       <c r="F51">
-        <v>-1191.687008928277</v>
+        <v>-1186.634659713009</v>
       </c>
       <c r="G51">
-        <v>299.99266676078</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>300.5599228321879</v>
+      </c>
+      <c r="H51">
+        <v>-47.53494702075236</v>
+      </c>
+      <c r="I51">
+        <v>1.252035707458075</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>11649.37814498082</v>
+        <v>11758.4181590978</v>
       </c>
       <c r="C52">
-        <v>380.3915361418668</v>
+        <v>387.3115160385182</v>
       </c>
       <c r="D52">
-        <v>27320.02185501918</v>
+        <v>27210.9818409022</v>
       </c>
       <c r="E52">
-        <v>0.02661548794206305</v>
+        <v>0.02579740796707194</v>
       </c>
       <c r="F52">
-        <v>-1266.288075705164</v>
+        <v>-1272.859273481929</v>
       </c>
       <c r="G52">
-        <v>299.2326801750463</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>299.788829701435</v>
+      </c>
+      <c r="H52">
+        <v>-48.69110286274724</v>
+      </c>
+      <c r="I52">
+        <v>0.6373213913997979</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>12029.92092772414</v>
+        <v>12145.73439381553</v>
       </c>
       <c r="C53">
-        <v>380.5427827433114</v>
+        <v>387.316234717731</v>
       </c>
       <c r="D53">
-        <v>26939.47907227587</v>
+        <v>26823.66560618448</v>
       </c>
       <c r="E53">
-        <v>0.02810268333707932</v>
+        <v>0.02750496742047182</v>
       </c>
       <c r="F53">
-        <v>-1341.910094695699</v>
+        <v>-1361.588563939535</v>
       </c>
       <c r="G53">
-        <v>298.470455133188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>299.0144722517637</v>
+      </c>
+      <c r="H53">
+        <v>-49.84916429570241</v>
+      </c>
+      <c r="I53">
+        <v>0.004718679212794896</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>12410.07226092821</v>
+        <v>12532.4090569452</v>
       </c>
       <c r="C54">
-        <v>380.1513332040784</v>
+        <v>386.6746631296774</v>
       </c>
       <c r="D54">
-        <v>26559.32773907179</v>
+        <v>26436.9909430548</v>
       </c>
       <c r="E54">
-        <v>0.02967362034452004</v>
+        <v>0.02933535182000196</v>
       </c>
       <c r="F54">
-        <v>-1418.049708922322</v>
+        <v>-1452.234144068942</v>
       </c>
       <c r="G54">
-        <v>297.7070656398765</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>298.2380947650075</v>
+      </c>
+      <c r="H54">
+        <v>-51.00723983750842</v>
+      </c>
+      <c r="I54">
+        <v>-0.6415715880535533</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>12789.28968512774</v>
+        <v>12917.78711527437</v>
       </c>
       <c r="C55">
-        <v>379.2174241995274</v>
+        <v>385.3780583291643</v>
       </c>
       <c r="D55">
-        <v>26180.11031487226</v>
+        <v>26051.61288472563</v>
       </c>
       <c r="E55">
-        <v>0.03133061949249863</v>
+        <v>0.0312947173849265</v>
       </c>
       <c r="F55">
-        <v>-1494.156050688829</v>
+        <v>-1544.103493189947</v>
       </c>
       <c r="G55">
-        <v>296.943596240976</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>297.4609819943809</v>
+      </c>
+      <c r="H55">
+        <v>-52.16339708026615</v>
+      </c>
+      <c r="I55">
+        <v>-1.296604800513068</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>13167.0351863321</v>
+        <v>13301.21043688639</v>
       </c>
       <c r="C56">
-        <v>377.7455012043649</v>
+        <v>383.4233216120168</v>
       </c>
       <c r="D56">
-        <v>25802.3648136679</v>
+        <v>25668.18956311361</v>
       </c>
       <c r="E56">
-        <v>0.03307573126565441</v>
+        <v>0.03338898303643169</v>
       </c>
       <c r="F56">
-        <v>-1569.639656751894</v>
+        <v>-1636.406138339354</v>
       </c>
       <c r="G56">
-        <v>296.1811336757693</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>296.6844497764283</v>
+      </c>
+      <c r="H56">
+        <v>-53.31567747467037</v>
+      </c>
+      <c r="I56">
+        <v>-1.954736717147506</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>13542.77960008521</v>
+        <v>13682.02405226596</v>
       </c>
       <c r="C57">
-        <v>375.7444137531091</v>
+        <v>380.8136153795779</v>
       </c>
       <c r="D57">
-        <v>25426.62039991479</v>
+        <v>25287.37594773404</v>
       </c>
       <c r="E57">
-        <v>0.03491069987822238</v>
+        <v>0.03562373126831393</v>
       </c>
       <c r="F57">
-        <v>-1643.883729134295</v>
+        <v>-1728.265244002474</v>
       </c>
       <c r="G57">
-        <v>295.4207579644605</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>295.9098340241522</v>
+      </c>
+      <c r="H57">
+        <v>-54.4621132062903</v>
+      </c>
+      <c r="I57">
+        <v>-2.609706232438958</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>13916.00711553851</v>
+        <v>14059.58290883058</v>
       </c>
       <c r="C58">
-        <v>373.2275154532999</v>
+        <v>377.5588565646171</v>
       </c>
       <c r="D58">
-        <v>25053.39288446149</v>
+        <v>24909.81709116942</v>
       </c>
       <c r="E58">
-        <v>0.03683693059884781</v>
+        <v>0.0380041063596256</v>
       </c>
       <c r="F58">
-        <v>-1716.257471621805</v>
+        <v>-1818.7348961852</v>
       </c>
       <c r="G58">
-        <v>294.5550474868832</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>295.1384782354266</v>
+      </c>
+      <c r="H58">
+        <v>-55.60074591627524</v>
+      </c>
+      <c r="I58">
+        <v>-3.25475881496078</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>14286.21977259774</v>
+        <v>14433.11474395218</v>
       </c>
       <c r="C59">
-        <v>370.2126570592305</v>
+        <v>373.5318351215959</v>
       </c>
       <c r="D59">
-        <v>24683.18022740226</v>
+        <v>24536.28525604782</v>
       </c>
       <c r="E59">
-        <v>0.03885546190547483</v>
+        <v>0.04096389924863032</v>
       </c>
       <c r="F59">
-        <v>-1786.131063216177</v>
+        <v>-1927.012596287529</v>
       </c>
       <c r="G59">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>-56.46</v>
+      </c>
+      <c r="I59">
+        <v>-4.027021443021198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>14652.94183776012</v>
+        <v>14802.09904535831</v>
       </c>
       <c r="C60">
-        <v>366.7220651623748</v>
+        <v>368.9843014061371</v>
       </c>
       <c r="D60">
-        <v>24316.45816223988</v>
+        <v>24167.30095464169</v>
       </c>
       <c r="E60">
-        <v>0.04096694366568522</v>
+        <v>0.04343804503498136</v>
       </c>
       <c r="F60">
-        <v>-1852.89167372363</v>
+        <v>-2000.043558157407</v>
       </c>
       <c r="G60">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>-56.46</v>
+      </c>
+      <c r="I60">
+        <v>-4.547533715458847</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>15015.72394196154</v>
+        <v>15166.05124910627</v>
       </c>
       <c r="C61">
-        <v>362.7821042014165</v>
+        <v>363.9522037479583</v>
       </c>
       <c r="D61">
-        <v>23953.67605803847</v>
+        <v>23803.34875089373</v>
       </c>
       <c r="E61">
-        <v>0.04317162237956286</v>
+        <v>0.04602875022448376</v>
       </c>
       <c r="F61">
-        <v>-1915.959800886881</v>
+        <v>-2068.039842563493</v>
       </c>
       <c r="G61">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>-56.46</v>
+      </c>
+      <c r="I61">
+        <v>-5.032097658178785</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>15374.14686716683</v>
+        <v>15524.52750794018</v>
       </c>
       <c r="C62">
-        <v>358.4229252052913</v>
+        <v>358.4762588339054</v>
       </c>
       <c r="D62">
-        <v>23595.25313283318</v>
+        <v>23444.87249205983</v>
       </c>
       <c r="E62">
-        <v>0.04546933429197495</v>
+        <v>0.04873545052471093</v>
       </c>
       <c r="F62">
-        <v>-1974.805129540462</v>
+        <v>-2130.333671839279</v>
       </c>
       <c r="G62">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>-56.46</v>
+      </c>
+      <c r="I62">
+        <v>-5.475944914052935</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>15727.82487769764</v>
+        <v>15877.12870879208</v>
       </c>
       <c r="C63">
-        <v>353.6780105308128</v>
+        <v>352.601200851905</v>
       </c>
       <c r="D63">
-        <v>23241.57512230236</v>
+        <v>23092.27129120792</v>
       </c>
       <c r="E63">
-        <v>0.04785950688939195</v>
+        <v>0.05155697334614035</v>
       </c>
       <c r="F63">
-        <v>-2028.961093998131</v>
+        <v>-2186.362405406217</v>
       </c>
       <c r="G63">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>-56.46</v>
+      </c>
+      <c r="I63">
+        <v>-5.875057982000367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>16076.40850706539</v>
+        <v>16223.50361606422</v>
       </c>
       <c r="C64">
-        <v>348.5836293677531</v>
+        <v>346.3749072721332</v>
       </c>
       <c r="D64">
-        <v>22892.99149293461</v>
+        <v>22745.89638393579</v>
       </c>
       <c r="E64">
-        <v>0.05034116895975611</v>
+        <v>0.05449156196183853</v>
       </c>
       <c r="F64">
-        <v>-2078.037372045643</v>
+        <v>-2235.685812297016</v>
       </c>
       <c r="G64">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <v>-56.46</v>
+      </c>
+      <c r="I64">
+        <v>-6.226293579771852</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>16419.58673055558</v>
+        <v>16563.3510550871</v>
       </c>
       <c r="C65">
-        <v>343.178223490186</v>
+        <v>339.8474390228858</v>
       </c>
       <c r="D65">
-        <v>22549.81326944442</v>
+        <v>22406.0489449129</v>
       </c>
       <c r="E65">
-        <v>0.05291296903435645</v>
+        <v>0.05753691396009689</v>
       </c>
       <c r="F65">
-        <v>-2121.72965166933</v>
+        <v>-2277.998057259099</v>
       </c>
       <c r="G65">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65">
+        <v>-56.46</v>
+      </c>
+      <c r="I65">
+        <v>-6.527468249247375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>16757.08847678409</v>
+        <v>16896.42109257506</v>
       </c>
       <c r="C66">
-        <v>337.5017462285125</v>
+        <v>333.0700374879524</v>
       </c>
       <c r="D66">
-        <v>22212.31152321591</v>
+        <v>22072.97890742495</v>
       </c>
       <c r="E66">
-        <v>0.05557320167318847</v>
+        <v>0.06069023255327524</v>
       </c>
       <c r="F66">
-        <v>-2159.82618110464</v>
+        <v>-2313.133746697173</v>
       </c>
       <c r="G66">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66">
+        <v>-56.46</v>
+      </c>
+      <c r="I66">
+        <v>-6.777401534933322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>17088.68345641568</v>
+        <v>17222.5152147294</v>
       </c>
       <c r="C67">
-        <v>331.5949796315876</v>
+        <v>326.0941221543449</v>
       </c>
       <c r="D67">
-        <v>21880.71654358432</v>
+        <v>21746.8847852706</v>
       </c>
       <c r="E67">
-        <v>0.05831984072539518</v>
+        <v>0.0639482886904031</v>
       </c>
       <c r="F67">
-        <v>-2192.210822884093</v>
+        <v>-2341.067838148575</v>
       </c>
       <c r="G67">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <v>-56.46</v>
+      </c>
+      <c r="I67">
+        <v>-6.975915333607544</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>17414.18231155872</v>
+        <v>17541.48554556529</v>
       </c>
       <c r="C68">
-        <v>325.4988551430349</v>
+        <v>318.9703308358908</v>
       </c>
       <c r="D68">
-        <v>21555.21768844128</v>
+        <v>21427.91445443471</v>
       </c>
       <c r="E68">
-        <v>0.06115057841741232</v>
+        <v>0.06730749145040618</v>
       </c>
       <c r="F68">
-        <v>-2218.862562221808</v>
+        <v>-2361.909679758929</v>
       </c>
       <c r="G68">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68">
+        <v>-56.46</v>
+      </c>
+      <c r="I68">
+        <v>-7.123791318454144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>17733.43611341423</v>
+        <v>17853.23318509565</v>
       </c>
       <c r="C69">
-        <v>319.2538018555131</v>
+        <v>311.7476395303653</v>
       </c>
       <c r="D69">
-        <v>21235.96388658577</v>
+        <v>21116.16681490435</v>
       </c>
       <c r="E69">
-        <v>0.06406286891198938</v>
+        <v>0.07076396390053995</v>
       </c>
       <c r="F69">
-        <v>-2239.851646180353</v>
+        <v>-2375.891861272937</v>
       </c>
       <c r="G69">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69">
+        <v>-56.46</v>
+      </c>
+      <c r="I69">
+        <v>-7.222691305525464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>18046.3352571271</v>
+        <v>18157.70577688348</v>
       </c>
       <c r="C70">
-        <v>312.8991437128724</v>
+        <v>304.472591787826</v>
       </c>
       <c r="D70">
-        <v>20923.0647428729</v>
+        <v>20811.69422311652</v>
       </c>
       <c r="E70">
-        <v>0.06705397485336952</v>
+        <v>0.07431362150467694</v>
       </c>
       <c r="F70">
-        <v>-2255.332730767557</v>
+        <v>-2383.354881774946</v>
       </c>
       <c r="G70">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>-56.46</v>
+      </c>
+      <c r="I70">
+        <v>-7.275047742539218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>18352.80782033742</v>
+        <v>18454.89443571066</v>
       </c>
       <c r="C71">
-        <v>306.4725632103181</v>
+        <v>297.1886588271769</v>
       </c>
       <c r="D71">
-        <v>20616.59217966258</v>
+        <v>20514.50556428934</v>
       </c>
       <c r="E71">
-        <v>0.07012101537210867</v>
+        <v>0.07795225025259502</v>
       </c>
       <c r="F71">
-        <v>-2265.53557075812</v>
+        <v>-2384.728843915026</v>
       </c>
       <c r="G71">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71">
+        <v>-56.46</v>
+      </c>
+      <c r="I71">
+        <v>-7.283932960649194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>18652.81746492287</v>
+        <v>18744.83017816582</v>
       </c>
       <c r="C72">
-        <v>300.0096445854528</v>
+        <v>289.9357424551556</v>
       </c>
       <c r="D72">
-        <v>20316.58253507713</v>
+        <v>20224.56982183419</v>
       </c>
       <c r="E72">
-        <v>0.07326101406427986</v>
+        <v>0.08167558193098853</v>
       </c>
       <c r="F72">
-        <v>-2270.753890283017</v>
+        <v>-2380.51346027255</v>
       </c>
       <c r="G72">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72">
+        <v>-56.46</v>
+      </c>
+      <c r="I72">
+        <v>-7.25291637202125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>18946.36096953921</v>
+        <v>19027.58000214169</v>
       </c>
       <c r="C73">
-        <v>293.5435046163318</v>
+        <v>282.7498239758781</v>
       </c>
       <c r="D73">
-        <v>20023.03903046079</v>
+        <v>19941.81999785831</v>
       </c>
       <c r="E73">
-        <v>0.07647094557452598</v>
+        <v>0.08547936433331835</v>
       </c>
       <c r="F73">
-        <v>-2271.333116963482</v>
+        <v>-2371.25761316687</v>
       </c>
       <c r="G73">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73">
+        <v>-56.46</v>
+      </c>
+      <c r="I73">
+        <v>-7.185918479277436</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>19233.46548388344</v>
+        <v>19303.24275657182</v>
       </c>
       <c r="C74">
-        <v>287.1045143442269</v>
+        <v>275.6627544301234</v>
       </c>
       <c r="D74">
-        <v>19735.93451611657</v>
+        <v>19666.15724342818</v>
       </c>
       <c r="E74">
-        <v>0.07974777958597999</v>
+        <v>0.08935942466544658</v>
       </c>
       <c r="F74">
-        <v>-2267.657651408314</v>
+        <v>-2357.539566829867</v>
       </c>
       <c r="G74">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74">
+        <v>-56.46</v>
+      </c>
+      <c r="I74">
+        <v>-7.087069545754707</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>19514.18559453943</v>
+        <v>19571.94493172583</v>
       </c>
       <c r="C75">
-        <v>280.7201106559937</v>
+        <v>268.7021751540138</v>
       </c>
       <c r="D75">
-        <v>19455.21440546057</v>
+        <v>19397.45506827417</v>
       </c>
       <c r="E75">
-        <v>0.08308852123486321</v>
+        <v>0.09331172490257224</v>
       </c>
       <c r="F75">
-        <v>-2260.138285705317</v>
+        <v>-2339.948720935144</v>
       </c>
       <c r="G75">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75">
+        <v>-56.46</v>
+      </c>
+      <c r="I75">
+        <v>-6.960579276109641</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>19788.60028748363</v>
+        <v>19833.83648476942</v>
       </c>
       <c r="C76">
-        <v>274.4146929441992</v>
+        <v>261.8915530435939</v>
       </c>
       <c r="D76">
-        <v>19180.79971251637</v>
+        <v>19135.56351523058</v>
       </c>
       <c r="E76">
-        <v>0.08649024720508657</v>
+        <v>0.0973324083493264</v>
       </c>
       <c r="F76">
-        <v>-2249.200291288771</v>
+        <v>-2319.069549980712</v>
       </c>
       <c r="G76">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76">
+        <v>-56.46</v>
+      </c>
+      <c r="I76">
+        <v>-6.810622110419841</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>20056.80988464839</v>
+        <v>20089.08679685499</v>
       </c>
       <c r="C77">
-        <v>268.2095971647566</v>
+        <v>255.2503120855603</v>
       </c>
       <c r="D77">
-        <v>18912.59011535161</v>
+        <v>18880.31320314501</v>
       </c>
       <c r="E77">
-        <v>0.08995013700084856</v>
+        <v>0.1014178371153604</v>
       </c>
       <c r="F77">
-        <v>-2235.272581996438</v>
+        <v>-2295.468124249534</v>
       </c>
       <c r="G77">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77">
+        <v>-56.46</v>
+      </c>
+      <c r="I77">
+        <v>-6.641240958033656</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>20318.93302223694</v>
+        <v>20337.88083837789</v>
       </c>
       <c r="C78">
-        <v>262.1231375885468</v>
+        <v>248.7940415229058</v>
       </c>
       <c r="D78">
-        <v>18650.46697776307</v>
+        <v>18631.51916162211</v>
       </c>
       <c r="E78">
-        <v>0.0934654991278623</v>
+        <v>0.105564620619063</v>
       </c>
       <c r="F78">
-        <v>-2218.778235606883</v>
+        <v>-2269.681379197319</v>
       </c>
       <c r="G78">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78">
+        <v>-56.46</v>
+      </c>
+      <c r="I78">
+        <v>-6.456270562654442</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>20575.10372760699</v>
+        <v>20580.4155995865</v>
       </c>
       <c r="C79">
-        <v>256.1707053700507</v>
+        <v>242.5347612086028</v>
       </c>
       <c r="D79">
-        <v>18394.29627239301</v>
+        <v>18388.9844004135</v>
       </c>
       <c r="E79">
-        <v>0.0970337921245745</v>
+        <v>0.1097696355575989</v>
       </c>
       <c r="F79">
-        <v>-2200.126538169982</v>
+        <v>-2242.209107490623</v>
       </c>
       <c r="G79">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>-56.46</v>
+      </c>
+      <c r="I79">
+        <v>-6.259280314303084</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>20825.46864025171</v>
+        <v>20816.89682552784</v>
       </c>
       <c r="C80">
-        <v>250.3649126447187</v>
+        <v>236.4812259413423</v>
       </c>
       <c r="D80">
-        <v>18143.93135974829</v>
+        <v>18152.50317447216</v>
       </c>
       <c r="E80">
-        <v>0.1006526405653815</v>
+        <v>0.114030038026677</v>
       </c>
       <c r="F80">
-        <v>-2179.706608736426</v>
+        <v>-2213.508499994168</v>
       </c>
       <c r="G80">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80">
+        <v>-56.46</v>
+      </c>
+      <c r="I80">
+        <v>-6.053535267260461</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>21070.18441134154</v>
+        <v>21047.53607807162</v>
       </c>
       <c r="C81">
-        <v>244.7157710898296</v>
+        <v>230.639252543785</v>
       </c>
       <c r="D81">
-        <v>17899.21558865847</v>
+        <v>17921.86392192838</v>
       </c>
       <c r="E81">
-        <v>0.1043198463038518</v>
+        <v>0.1183432686400856</v>
       </c>
       <c r="F81">
-        <v>-2157.882573282594</v>
+        <v>-2183.990960423692</v>
       </c>
       <c r="G81">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81">
+        <v>-56.46</v>
+      </c>
+      <c r="I81">
+        <v>-5.841973397557283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>21309.41530593551</v>
+        <v>21272.548133901</v>
       </c>
       <c r="C82">
-        <v>239.2308945939718</v>
+        <v>225.0120558293807</v>
       </c>
       <c r="D82">
-        <v>17659.98469406449</v>
+        <v>17696.851866099</v>
       </c>
       <c r="E82">
-        <v>0.1080333953340159</v>
+        <v>0.1227070515942078</v>
       </c>
       <c r="F82">
-        <v>-2134.990188391957</v>
+        <v>-2154.020859689276</v>
       </c>
       <c r="G82">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>-56.46</v>
+      </c>
+      <c r="I82">
+        <v>-5.627196714404281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>21543.33102266515</v>
+        <v>21492.14871605076</v>
       </c>
       <c r="C83">
-        <v>233.9157167296381</v>
+        <v>219.6005821497565</v>
       </c>
       <c r="D83">
-        <v>17426.06897733485</v>
+        <v>17477.25128394924</v>
       </c>
       <c r="E83">
-        <v>0.1117914607231641</v>
+        <v>0.1271193886569464</v>
       </c>
       <c r="F83">
-        <v>-2111.334767793676</v>
+        <v>-2123.915873501767</v>
       </c>
       <c r="G83">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83">
+        <v>-56.46</v>
+      </c>
+      <c r="I83">
+        <v>-5.411473679624264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>21772.10473764019</v>
+        <v>21706.552547771</v>
       </c>
       <c r="C84">
-        <v>228.7737149750475</v>
+        <v>214.4038317202352</v>
       </c>
       <c r="D84">
-        <v>17197.29526235981</v>
+        <v>17262.84745222901</v>
       </c>
       <c r="E84">
-        <v>0.1155924021134974</v>
+        <v>0.1315785490458441</v>
       </c>
       <c r="F84">
-        <v>-2087.190236537697</v>
+        <v>-2093.948552462386</v>
       </c>
       <c r="G84">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>-56.46</v>
+      </c>
+      <c r="I84">
+        <v>-5.1967504295213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>21995.9113726087</v>
+        <v>21915.97171101569</v>
       </c>
       <c r="C85">
-        <v>223.8066349685062</v>
+        <v>209.419163244693</v>
       </c>
       <c r="D85">
-        <v>16973.4886273913</v>
+        <v>17053.42828898431</v>
       </c>
       <c r="E85">
-        <v>0.1194347623067869</v>
+        <v>0.136083056108908</v>
       </c>
       <c r="F85">
-        <v>-2062.799125601104</v>
+        <v>-2064.348799320591</v>
       </c>
       <c r="G85">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85">
+        <v>-56.46</v>
+      </c>
+      <c r="I85">
+        <v>-4.984668475542176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>22214.92608201747</v>
+        <v>22120.61428743049</v>
       </c>
       <c r="C86">
-        <v>219.01470940877</v>
+        <v>204.6425764148029</v>
       </c>
       <c r="D86">
-        <v>16754.47391798253</v>
+        <v>16848.78571256951</v>
       </c>
       <c r="E86">
-        <v>0.1233172614408939</v>
+        <v>0.1406316716451377</v>
       </c>
       <c r="F86">
-        <v>-2038.373320705702</v>
+        <v>-2035.306965855182</v>
       </c>
       <c r="G86">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86">
+        <v>-56.46</v>
+      </c>
+      <c r="I86">
+        <v>-4.776586829890077</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>22429.32294948744</v>
+        <v>22320.68325702988</v>
       </c>
       <c r="C87">
-        <v>214.3968674699647</v>
+        <v>200.0689695993847</v>
       </c>
       <c r="D87">
-        <v>16540.07705051257</v>
+        <v>16648.71674297012</v>
       </c>
       <c r="E87">
-        <v>0.1272387892446338</v>
+        <v>0.1452233786099325</v>
       </c>
       <c r="F87">
-        <v>-2014.095389630561</v>
+        <v>-2006.977325675168</v>
       </c>
       <c r="G87">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87">
+        <v>-56.46</v>
+      </c>
+      <c r="I87">
+        <v>-4.573606815418177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>22639.27388122198</v>
+        <v>22516.37562848768</v>
       </c>
       <c r="C88">
-        <v>209.950931734539</v>
+        <v>195.6923714577988</v>
       </c>
       <c r="D88">
-        <v>16330.12611877803</v>
+        <v>16453.02437151232</v>
       </c>
       <c r="E88">
-        <v>0.1311983958228161</v>
+        <v>0.1498573628515496</v>
       </c>
       <c r="F88">
-        <v>-1990.120329127634</v>
+        <v>-1979.481724379486</v>
       </c>
       <c r="G88">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88">
+        <v>-56.46</v>
+      </c>
+      <c r="I88">
+        <v>-4.376598141585914</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>22844.94768185886</v>
+        <v>22707.8817748094</v>
       </c>
       <c r="C89">
-        <v>205.6738006368814</v>
+        <v>191.5061463217243</v>
       </c>
       <c r="D89">
-        <v>16124.45231814115</v>
+        <v>16261.5182251906</v>
       </c>
       <c r="E89">
-        <v>0.135195281380595</v>
+        <v>0.1545329944249199</v>
       </c>
       <c r="F89">
-        <v>-1966.577592953074</v>
+        <v>-1952.913251608013</v>
       </c>
       <c r="G89">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89">
+        <v>-56.46</v>
+      </c>
+      <c r="I89">
+        <v>-4.186225136074473</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>23046.50929710257</v>
+        <v>22895.38494883137</v>
       </c>
       <c r="C90">
-        <v>201.561615243719</v>
+        <v>187.5031740219653</v>
       </c>
       <c r="D90">
-        <v>15922.89070289743</v>
+        <v>16074.01505116863</v>
       </c>
       <c r="E90">
-        <v>0.1392287852491319</v>
+        <v>0.1592498089330027</v>
       </c>
       <c r="F90">
-        <v>-1943.573284319821</v>
+        <v>-1927.339818450389</v>
       </c>
       <c r="G90">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90">
+        <v>-56.46</v>
+      </c>
+      <c r="I90">
+        <v>-4.002972299759039</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>23244.11920697958</v>
+        <v>23079.06095426016</v>
       </c>
       <c r="C91">
-        <v>197.6099098770014</v>
+        <v>183.6760054287893</v>
       </c>
       <c r="D91">
-        <v>15725.28079302043</v>
+        <v>15890.33904573985</v>
       </c>
       <c r="E91">
-        <v>0.1432983745258969</v>
+        <v>0.1640074892565885</v>
       </c>
       <c r="F91">
-        <v>-1921.192417623178</v>
+        <v>-1902.807557341098</v>
       </c>
       <c r="G91">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91">
+        <v>-56.46</v>
+      </c>
+      <c r="I91">
+        <v>-3.827168593176008</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>23437.93295360003</v>
+        <v>23259.07794962617</v>
       </c>
       <c r="C92">
-        <v>193.8137466204557</v>
+        <v>180.0169953660159</v>
       </c>
       <c r="D92">
-        <v>15531.46704639997</v>
+        <v>15710.32205037383</v>
       </c>
       <c r="E92">
-        <v>0.1474036325949482</v>
+        <v>0.1688058479529114</v>
       </c>
       <c r="F92">
-        <v>-1899.501174464802</v>
+        <v>-1879.343989590837</v>
       </c>
       <c r="G92">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92">
+        <v>-56.46</v>
+      </c>
+      <c r="I92">
+        <v>-3.659010062773369</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>23628.10078775717</v>
+        <v>23435.59636441606</v>
       </c>
       <c r="C93">
-        <v>190.1678341571383</v>
+        <v>176.5184147898888</v>
       </c>
       <c r="D93">
-        <v>15341.29921224283</v>
+        <v>15533.80363558394</v>
       </c>
       <c r="E93">
-        <v>0.1515442477468455</v>
+        <v>0.1736448105325237</v>
       </c>
       <c r="F93">
-        <v>-1878.54909710857</v>
+        <v>-1856.9609282301</v>
       </c>
       <c r="G93">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93">
+        <v>-56.46</v>
+      </c>
+      <c r="I93">
+        <v>-3.498580576127097</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>23814.76741943654</v>
+        <v>23608.76890864568</v>
       </c>
       <c r="C94">
-        <v>186.6666316793639</v>
+        <v>173.1725442296224</v>
       </c>
       <c r="D94">
-        <v>15154.63258056347</v>
+        <v>15360.63109135432</v>
       </c>
       <c r="E94">
-        <v>0.1557200020755642</v>
+        <v>0.1785243997628013</v>
       </c>
       <c r="F94">
-        <v>-1858.371178194129</v>
+        <v>-1835.657101336136</v>
       </c>
       <c r="G94">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94">
+        <v>-56.46</v>
+      </c>
+      <c r="I94">
+        <v>-3.345870560266389</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>23998.07185824882</v>
+        <v>23778.74065914449</v>
       </c>
       <c r="C95">
-        <v>183.304438812285</v>
+        <v>169.9717504988035</v>
       </c>
       <c r="D95">
-        <v>14971.32814175118</v>
+        <v>15190.65934085552</v>
       </c>
       <c r="E95">
-        <v>0.1599307607915226</v>
+        <v>0.1834447210948677</v>
       </c>
       <c r="F95">
-        <v>-1838.989818716924</v>
+        <v>-1815.420494114835</v>
       </c>
       <c r="G95">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95">
+        <v>-56.46</v>
+      </c>
+      <c r="I95">
+        <v>-3.200793730818896</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>24178.14733086426</v>
+        <v>23945.64920777643</v>
       </c>
       <c r="C96">
-        <v>180.0754726154443</v>
+        <v>166.9085486319505</v>
       </c>
       <c r="D96">
-        <v>14791.25266913574</v>
+        <v>15023.75079222357</v>
       </c>
       <c r="E96">
-        <v>0.1641764620559427</v>
+        <v>0.1884059492680152</v>
       </c>
       <c r="F96">
-        <v>-1820.41663704135</v>
+        <v>-1796.230417413201</v>
       </c>
       <c r="G96">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>-56.46</v>
+      </c>
+      <c r="I96">
+        <v>-3.063201866853101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>24355.12126365301</v>
+        <v>24109.62485867641</v>
       </c>
       <c r="C97">
-        <v>176.9739327887511</v>
+        <v>163.9756508999741</v>
       </c>
       <c r="D97">
-        <v>14614.27873634699</v>
+        <v>14859.77514132359</v>
       </c>
       <c r="E97">
-        <v>0.1684571074122689</v>
+        <v>0.1934083161110118</v>
       </c>
       <c r="F97">
-        <v>-1802.654120244071</v>
+        <v>-1778.059316734274</v>
       </c>
       <c r="G97">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>-56.46</v>
+      </c>
+      <c r="I97">
+        <v>-2.93289773197632</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>24529.1153198776</v>
+        <v>24270.79086330541</v>
       </c>
       <c r="C98">
-        <v>173.9940562245821</v>
+        <v>161.1660046290025</v>
       </c>
       <c r="D98">
-        <v>14440.2846801224</v>
+        <v>14698.60913669459</v>
       </c>
       <c r="E98">
-        <v>0.1727727528651412</v>
+        <v>0.1984520995320983</v>
       </c>
       <c r="F98">
-        <v>-1785.697115647228</v>
+        <v>-1760.874339848635</v>
       </c>
       <c r="G98">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98">
+        <v>-56.46</v>
+      </c>
+      <c r="I98">
+        <v>-2.809646270971674</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>24700.24548190571</v>
+        <v>24429.26368370741</v>
       </c>
       <c r="C99">
-        <v>171.1301620281067</v>
+        <v>158.4728204020037</v>
       </c>
       <c r="D99">
-        <v>14269.1545180943</v>
+        <v>14540.13631629259</v>
       </c>
       <c r="E99">
-        <v>0.1771235006362074</v>
+        <v>0.2035376136680573</v>
       </c>
       <c r="F99">
-        <v>-1769.534165281007</v>
+        <v>-1744.638683301194</v>
       </c>
       <c r="G99">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>-56.46</v>
+      </c>
+      <c r="I99">
+        <v>-2.693184226998794</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>24868.62216998919</v>
+        <v>24585.15327577892</v>
       </c>
       <c r="C100">
-        <v>168.376688083484</v>
+        <v>155.8895920715094</v>
       </c>
       <c r="D100">
-        <v>14100.77783001081</v>
+        <v>14384.24672422108</v>
       </c>
       <c r="E100">
-        <v>0.1815094916085051</v>
+        <v>0.2086652001465843</v>
       </c>
       <c r="F100">
-        <v>-1754.148689495243</v>
+        <v>-1729.312738968142</v>
       </c>
       <c r="G100">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>-56.46</v>
+      </c>
+      <c r="I100">
+        <v>-2.583228330494252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>25034.35039017156</v>
+        <v>24738.5633856403</v>
       </c>
       <c r="C101">
-        <v>165.7282201823649</v>
+        <v>153.4101098613775</v>
       </c>
       <c r="D101">
-        <v>13935.04960982845</v>
+        <v>14230.8366143597</v>
       </c>
       <c r="E101">
-        <v>0.1859308984569043</v>
+        <v>0.2138352204044522</v>
       </c>
       <c r="F101">
-        <v>-1739.520028285749</v>
+        <v>-1714.855061711006</v>
       </c>
       <c r="G101">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101">
+        <v>-56.46</v>
+      </c>
+      <c r="I101">
+        <v>-2.479482210131877</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>25197.52990483113</v>
+        <v>24889.59185333096</v>
       </c>
       <c r="C102">
-        <v>163.1795146595777</v>
+        <v>151.0284676906566</v>
       </c>
       <c r="D102">
-        <v>13771.87009516887</v>
+        <v>14079.80814666905</v>
       </c>
       <c r="E102">
-        <v>0.1903879194507612</v>
+        <v>0.2190480489959077</v>
       </c>
       <c r="F102">
-        <v>-1725.624350350674</v>
+        <v>-1701.223178407761</v>
       </c>
       <c r="G102">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>-56.46</v>
+      </c>
+      <c r="I102">
+        <v>-2.381642170720975</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>25358.25542023502</v>
+        <v>25038.3309190472</v>
       </c>
       <c r="C103">
-        <v>160.7255154038909</v>
+        <v>148.7390657162383</v>
       </c>
       <c r="D103">
-        <v>13611.14457976498</v>
+        <v>13931.06908095281</v>
       </c>
       <c r="E103">
-        <v>0.1948807729061307</v>
+        <v>0.2243040678206787</v>
       </c>
       <c r="F103">
-        <v>-1712.435440651182</v>
+        <v>-1688.374257451125</v>
       </c>
       <c r="G103">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>-56.46</v>
+      </c>
+      <c r="I103">
+        <v>-2.289401974418309</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>25516.61678626807</v>
+        <v>25184.86752801206</v>
       </c>
       <c r="C104">
-        <v>158.3613660330497</v>
+        <v>146.5366089648605</v>
       </c>
       <c r="D104">
-        <v>13452.78321373193</v>
+        <v>13784.53247198795</v>
       </c>
       <c r="E104">
-        <v>0.1994096922582588</v>
+        <v>0.229603661198351</v>
       </c>
       <c r="F104">
-        <v>-1699.925377492248</v>
+        <v>-1676.265656369337</v>
       </c>
       <c r="G104">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104">
+        <v>-56.46</v>
+      </c>
+      <c r="I104">
+        <v>-2.202456751377722</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>25672.69920421261</v>
+        <v>25329.28363082203</v>
       </c>
       <c r="C105">
-        <v>156.0824179445385</v>
+        <v>144.4161028099726</v>
       </c>
       <c r="D105">
-        <v>13296.70079578739</v>
+        <v>13640.11636917797</v>
       </c>
       <c r="E105">
-        <v>0.2039749217202918</v>
+        <v>0.234947211715181</v>
       </c>
       <c r="F105">
-        <v>-1688.065110005366</v>
+        <v>-1664.855363674811</v>
       </c>
       <c r="G105">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105">
+        <v>-56.46</v>
+      </c>
+      <c r="I105">
+        <v>-2.120506154887934</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>25826.58343909122</v>
+        <v>25471.65647676719</v>
       </c>
       <c r="C106">
-        <v>153.8842348786087</v>
+        <v>142.3728459451614</v>
       </c>
       <c r="D106">
-        <v>13142.81656090878</v>
+        <v>13497.74352323281</v>
       </c>
       <c r="E106">
-        <v>0.2085767124909055</v>
+        <v>0.2403350967702391</v>
       </c>
       <c r="F106">
-        <v>-1676.824946519274</v>
+        <v>-1654.102349473071</v>
       </c>
       <c r="G106">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106">
+        <v>-56.46</v>
+      </c>
+      <c r="I106">
+        <v>-2.043256864811163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>25978.34603365048</v>
+        <v>25612.05889818018</v>
       </c>
       <c r="C107">
-        <v>151.7625945592587</v>
+        <v>140.4024214129847</v>
       </c>
       <c r="D107">
-        <v>12991.05396634953</v>
+        <v>13357.34110181982</v>
       </c>
       <c r="E107">
-        <v>0.2132153194716027</v>
+        <v>0.2457676857497664</v>
       </c>
       <c r="F107">
-        <v>-1666.174963736604</v>
+        <v>-1643.966837830469</v>
       </c>
       <c r="G107">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107">
+        <v>-56.46</v>
+      </c>
+      <c r="I107">
+        <v>-1.970424532176699</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>26128.05952156328</v>
+        <v>25750.55958434577</v>
       </c>
       <c r="C108">
-        <v>149.7134879128037</v>
+        <v>138.5006861655941</v>
       </c>
       <c r="D108">
-        <v>12841.34047843672</v>
+        <v>13218.84041565423</v>
       </c>
       <c r="E108">
-        <v>0.2178909984535279</v>
+        <v>0.2512453377615049</v>
       </c>
       <c r="F108">
-        <v>-1656.085345962023</v>
+        <v>-1634.410512444407</v>
       </c>
       <c r="G108">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108">
+        <v>-56.46</v>
+      </c>
+      <c r="I108">
+        <v>-1.901735247390585</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>26275.79263786608</v>
+        <v>25887.22334390651</v>
       </c>
       <c r="C109">
-        <v>147.7331163028081</v>
+        <v>136.663759560735</v>
       </c>
       <c r="D109">
-        <v>12693.60736213392</v>
+        <v>13082.1766560935</v>
       </c>
       <c r="E109">
-        <v>0.2226040037335932</v>
+        <v>0.256768399864255</v>
       </c>
       <c r="F109">
-        <v>-1646.526662902019</v>
+        <v>-1625.396665807113</v>
       </c>
       <c r="G109">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109">
+        <v>-56.46</v>
+      </c>
+      <c r="I109">
+        <v>-1.836926604859134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>26421.61052503067</v>
+        <v>26022.11135503927</v>
       </c>
       <c r="C110">
-        <v>145.8178871645815</v>
+        <v>134.8880111327626</v>
       </c>
       <c r="D110">
-        <v>12547.78947496933</v>
+        <v>12947.28864496073</v>
       </c>
       <c r="E110">
-        <v>0.2273545861203343</v>
+        <v>0.2623372057318619</v>
       </c>
       <c r="F110">
-        <v>-1637.470093815211</v>
+        <v>-1616.890300814961</v>
       </c>
       <c r="G110">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110">
+        <v>-56.46</v>
+      </c>
+      <c r="I110">
+        <v>-1.77574842797245</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>26565.57493340276</v>
+        <v>26155.28140296166</v>
       </c>
       <c r="C111">
-        <v>143.9644083720971</v>
+        <v>133.1700479223873</v>
       </c>
       <c r="D111">
-        <v>12403.82506659724</v>
+        <v>12814.11859703834</v>
       </c>
       <c r="E111">
-        <v>0.2321429912910651</v>
+        <v>0.267952074695049</v>
       </c>
       <c r="F111">
-        <v>-1628.887605060972</v>
+        <v>-1608.85819265285</v>
       </c>
       <c r="G111">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111">
+        <v>-56.46</v>
+      </c>
+      <c r="I111">
+        <v>-1.717963210375235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>26707.74441502763</v>
+        <v>26286.78810456179</v>
       </c>
       <c r="C112">
-        <v>142.1694816248629</v>
+        <v>131.5067016001388</v>
       </c>
       <c r="D112">
-        <v>12261.65558497237</v>
+        <v>12682.61189543821</v>
       </c>
       <c r="E112">
-        <v>0.2369694584634553</v>
+        <v>0.2736133111088836</v>
       </c>
       <c r="F112">
-        <v>-1620.752087391052</v>
+        <v>-1601.268917774747</v>
       </c>
       <c r="G112">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112">
+        <v>-56.46</v>
+      </c>
+      <c r="I112">
+        <v>-1.663346322248534</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>26848.17451012933</v>
+        <v>26416.68312013804</v>
       </c>
       <c r="C113">
-        <v>140.4300951017037</v>
+        <v>129.8950155762427</v>
       </c>
       <c r="D113">
-        <v>12121.22548987067</v>
+        <v>12552.71687986196</v>
       </c>
       <c r="E113">
-        <v>0.2418342193465078</v>
+        <v>0.2793212039980705</v>
       </c>
       <c r="F113">
-        <v>-1613.037458664664</v>
+        <v>-1594.092855901417</v>
       </c>
       <c r="G113">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113">
+        <v>-56.46</v>
+      </c>
+      <c r="I113">
+        <v>-1.611686023896059</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>26986.91792572158</v>
+        <v>26545.01535239106</v>
       </c>
       <c r="C114">
-        <v>138.7434155922507</v>
+        <v>128.3322322530274</v>
       </c>
       <c r="D114">
-        <v>11982.48207427842</v>
+        <v>12424.38464760894</v>
       </c>
       <c r="E114">
-        <v>0.2467374973379691</v>
+        <v>0.2850760269366345</v>
       </c>
       <c r="F114">
-        <v>-1605.718737048687</v>
+        <v>-1587.302170156565</v>
       </c>
       <c r="G114">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114">
+        <v>-56.46</v>
+      </c>
+      <c r="I114">
+        <v>-1.562783323215347</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>27124.02470600644</v>
+        <v>26671.83113293551</v>
       </c>
       <c r="C115">
-        <v>137.1067802848573</v>
+        <v>126.8157805444503</v>
       </c>
       <c r="D115">
-        <v>11845.37529399357</v>
+        <v>12297.56886706449</v>
       </c>
       <c r="E115">
-        <v>0.2516795069374098</v>
+        <v>0.2908780381228235</v>
       </c>
       <c r="F115">
-        <v>-1598.772089194025</v>
+        <v>-1580.870769754702</v>
       </c>
       <c r="G115">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115">
+        <v>-56.46</v>
+      </c>
+      <c r="I115">
+        <v>-1.516451708577087</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>27259.54239436775</v>
+        <v>26797.17439669579</v>
       </c>
       <c r="C116">
-        <v>135.517688361308</v>
+        <v>125.3432637602807</v>
       </c>
       <c r="D116">
-        <v>11709.85760563226</v>
+        <v>12172.22560330421</v>
       </c>
       <c r="E116">
-        <v>0.2566604533464768</v>
+        <v>0.2967274806141652</v>
       </c>
       <c r="F116">
-        <v>-1592.174857357154</v>
+        <v>-1574.774259028841</v>
       </c>
       <c r="G116">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116">
+        <v>-56.46</v>
+      </c>
+      <c r="I116">
+        <v>-1.472516784169621</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>27393.51618689147</v>
+        <v>26921.08684462514</v>
       </c>
       <c r="C117">
-        <v>133.9737925237247</v>
+        <v>123.9124479293498</v>
       </c>
       <c r="D117">
-        <v>11575.88381310853</v>
+        <v>12048.31315537486</v>
       </c>
       <c r="E117">
-        <v>0.2616805322301179</v>
+        <v>0.3026245826915289</v>
       </c>
       <c r="F117">
-        <v>-1585.90556896144</v>
+        <v>-1568.989876035283</v>
       </c>
       <c r="G117">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117">
+        <v>-56.46</v>
+      </c>
+      <c r="I117">
+        <v>-1.430815830930898</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
-        <v>27525.98907744865</v>
+        <v>27043.60809524177</v>
       </c>
       <c r="C118">
-        <v>132.4728905571805</v>
+        <v>122.5212506166212</v>
       </c>
       <c r="D118">
-        <v>11443.41092255135</v>
+        <v>11925.79190475824</v>
       </c>
       <c r="E118">
-        <v>0.2667399296148619</v>
+        <v>0.3085695583247314</v>
       </c>
       <c r="F118">
-        <v>-1579.94393166353</v>
+        <v>-1563.496423488182</v>
       </c>
       <c r="G118">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118">
+        <v>-56.46</v>
+      </c>
+      <c r="I118">
+        <v>-1.391197312728604</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119">
-        <v>27657.00199446105</v>
+        <v>27164.77582551398</v>
       </c>
       <c r="C119">
-        <v>131.0129170123974</v>
+        <v>121.1677302722128</v>
       </c>
       <c r="D119">
-        <v>11312.39800553895</v>
+        <v>11804.62417448602</v>
       </c>
       <c r="E119">
-        <v>0.2718388219024668</v>
+        <v>0.3145626077156847</v>
       </c>
       <c r="F119">
-        <v>-1574.270816603392</v>
+        <v>-1558.274194350884</v>
       </c>
       <c r="G119">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119">
+        <v>-56.46</v>
+      </c>
+      <c r="I119">
+        <v>-1.353520344408366</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120">
-        <v>27786.5939295373</v>
+        <v>27284.62590165053</v>
       </c>
       <c r="C120">
-        <v>129.5919350762542</v>
+        <v>119.8500761365494</v>
       </c>
       <c r="D120">
-        <v>11182.8060704627</v>
+        <v>11684.77409834947</v>
       </c>
       <c r="E120">
-        <v>0.2769773759794107</v>
+        <v>0.3206039178982718</v>
       </c>
       <c r="F120">
-        <v>-1568.868232169154</v>
+        <v>-1553.304894037729</v>
       </c>
       <c r="G120">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120">
+        <v>-56.46</v>
+      </c>
+      <c r="I120">
+        <v>-1.317654135663393</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>27914.8020582207</v>
+        <v>27403.19250036473</v>
       </c>
       <c r="C121">
-        <v>128.2081286834036</v>
+        <v>118.5665987142049</v>
       </c>
       <c r="D121">
-        <v>11054.5979417793</v>
+        <v>11566.20749963527</v>
       </c>
       <c r="E121">
-        <v>0.2821557494047642</v>
+        <v>0.3266936633770874</v>
       </c>
       <c r="F121">
-        <v>-1563.719290296695</v>
+        <v>-1548.571560853213</v>
       </c>
       <c r="G121">
         <v>294.5550474868832</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121">
+        <v>-56.46</v>
+      </c>
+      <c r="I121">
+        <v>-1.283477422344472</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>28041.66185313056</v>
+        <v>27520.50822118415</v>
       </c>
       <c r="C122">
-        <v>126.859794909855</v>
+        <v>117.3157208194152</v>
       </c>
       <c r="D122">
-        <v>10927.73814686944</v>
+        <v>11448.89177881585</v>
       </c>
       <c r="E122">
-        <v>0.2873740906609438</v>
+        <v>0.332832006789858</v>
       </c>
       <c r="F122">
-        <v>-1558.808167045902</v>
+        <v>-1544.058486009847</v>
       </c>
       <c r="G122">
-        <v>294.948299473819</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>294.5550474868832</v>
+      </c>
+      <c r="H122">
+        <v>-56.46</v>
+      </c>
+      <c r="I122">
+        <v>-1.250877894789697</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>28167.20718980927</v>
+        <v>27636.60419037259</v>
       </c>
       <c r="C123">
-        <v>125.5453366787098</v>
+        <v>116.0959691884387</v>
       </c>
       <c r="D123">
-        <v>10802.19281019073</v>
+        <v>11332.79580962741</v>
       </c>
       <c r="E123">
-        <v>0.2926325394536816</v>
+        <v>0.3390190995807849</v>
       </c>
       <c r="F123">
-        <v>-1554.120058947504</v>
+        <v>-1539.751134317331</v>
       </c>
       <c r="G123">
-        <v>295.5008307470718</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>294.5550474868832</v>
+      </c>
+      <c r="H123">
+        <v>-56.46</v>
+      </c>
+      <c r="I123">
+        <v>-1.219751630976502</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124">
-        <v>28291.47044560841</v>
+        <v>27751.51015702027</v>
       </c>
       <c r="C124">
-        <v>124.2632557991424</v>
+        <v>114.9059666476837</v>
       </c>
       <c r="D124">
-        <v>10677.92955439159</v>
+        <v>11217.88984297973</v>
       </c>
       <c r="E124">
-        <v>0.2979312270492651</v>
+        <v>0.3452550826742352</v>
       </c>
       <c r="F124">
-        <v>-1549.641136393924</v>
+        <v>-1535.636066419543</v>
       </c>
       <c r="G124">
-        <v>296.0467040378531</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>294.5550474868832</v>
+      </c>
+      <c r="H124">
+        <v>-56.46</v>
+      </c>
+      <c r="I124">
+        <v>-1.190002540755076</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>28414.48259196043</v>
+        <v>27865.25458184187</v>
       </c>
       <c r="C125">
-        <v>123.01214635202</v>
+        <v>113.7444248215961</v>
       </c>
       <c r="D125">
-        <v>10554.91740803957</v>
+        <v>11104.14541815814</v>
       </c>
       <c r="E125">
-        <v>0.3032702766386831</v>
+        <v>0.3515400871401487</v>
       </c>
       <c r="F125">
-        <v>-1545.358495151862</v>
+        <v>-1531.700863268999</v>
       </c>
       <c r="G125">
-        <v>296.5860917897837</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>294.5550474868832</v>
+      </c>
+      <c r="H125">
+        <v>-56.46</v>
+      </c>
+      <c r="I125">
+        <v>-1.161541826087554</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>28536.27328038953</v>
+        <v>27977.86471920239</v>
       </c>
       <c r="C126">
-        <v>121.7906884290984</v>
+        <v>112.6101373605287</v>
       </c>
       <c r="D126">
-        <v>10433.12671961047</v>
+        <v>10991.53528079761</v>
       </c>
       <c r="E126">
-        <v>0.3086498037197725</v>
+        <v>0.3578742348442449</v>
       </c>
       <c r="F126">
-        <v>-1541.260106901172</v>
+        <v>-1527.934053367441</v>
       </c>
       <c r="G126">
-        <v>297.1191589900037</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>294.5550474868832</v>
+      </c>
+      <c r="H126">
+        <v>-56.46</v>
+      </c>
+      <c r="I126">
+        <v>-1.134287461067437</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127">
-        <v>28656.87092261688</v>
+        <v>28089.33667645911</v>
       </c>
       <c r="C127">
-        <v>120.5976422273577</v>
+        <v>111.4719572567174</v>
       </c>
       <c r="D127">
-        <v>10312.52907738312</v>
+        <v>10880.06332354089</v>
       </c>
       <c r="E127">
-        <v>0.3140699164897822</v>
+        <v>0.3652618336231679</v>
       </c>
       <c r="F127">
-        <v>-1537.334769551805</v>
+        <v>-1528.527340465657</v>
       </c>
       <c r="G127">
-        <v>297.6460636219275</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>294.667128104681</v>
+      </c>
+      <c r="H127">
+        <v>-56.29506397237649</v>
+      </c>
+      <c r="I127">
+        <v>-1.138180103811315</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>28776.30276511252</v>
+        <v>28199.73761010878</v>
       </c>
       <c r="C128">
-        <v>119.4318424956367</v>
+        <v>110.4009336496662</v>
       </c>
       <c r="D128">
-        <v>10193.09723488748</v>
+        <v>10769.66238989122</v>
       </c>
       <c r="E128">
-        <v>0.3195307162419761</v>
+        <v>0.3704777367688338</v>
       </c>
       <c r="F128">
-        <v>-1533.572057956303</v>
+        <v>-1519.173262198692</v>
       </c>
       <c r="G128">
-        <v>298.1669570858084</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>295.1582405552993</v>
+      </c>
+      <c r="H128">
+        <v>-55.57161096978037</v>
+      </c>
+      <c r="I128">
+        <v>-1.071023607051195</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129">
-        <v>28894.59495843967</v>
+        <v>28309.12535460757</v>
       </c>
       <c r="C129">
-        <v>118.2921933271516</v>
+        <v>109.3877444987868</v>
       </c>
       <c r="D129">
-        <v>10074.80504156033</v>
+        <v>10660.27464539243</v>
       </c>
       <c r="E129">
-        <v>0.325032297760971</v>
+        <v>0.3756994999675331</v>
       </c>
       <c r="F129">
-        <v>-1529.962275517653</v>
+        <v>-1511.123812521166</v>
       </c>
       <c r="G129">
-        <v>298.6819845893312</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>295.6438302963182</v>
+      </c>
+      <c r="H129">
+        <v>-54.85510891039403</v>
+      </c>
+      <c r="I129">
+        <v>-1.013189150879372</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130">
-        <v>29011.77262172832</v>
+        <v>28417.54996393686</v>
       </c>
       <c r="C130">
-        <v>117.1776632886517</v>
+        <v>108.4246093292975</v>
       </c>
       <c r="D130">
-        <v>9957.627378271682</v>
+        <v>10551.85003606314</v>
       </c>
       <c r="E130">
-        <v>0.3305747497124684</v>
+        <v>0.3809286901720124</v>
       </c>
       <c r="F130">
-        <v>-1526.496407089813</v>
+        <v>-1504.163196968058</v>
       </c>
       <c r="G130">
-        <v>299.1912855103449</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>296.1241782556463</v>
+      </c>
+      <c r="H130">
+        <v>-54.14518244859689</v>
+      </c>
+      <c r="I130">
+        <v>-0.9631351694892736</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131">
-        <v>29127.85990260308</v>
+        <v>28525.05499070589</v>
       </c>
       <c r="C131">
-        <v>116.0872808747599</v>
+        <v>107.5050267690229</v>
       </c>
       <c r="D131">
-        <v>9841.540097396923</v>
+        <v>10444.34500929411</v>
       </c>
       <c r="E131">
-        <v>0.3361581550238917</v>
+        <v>0.3861666067421712</v>
       </c>
       <c r="F131">
-        <v>-1523.166073479278</v>
+        <v>-1498.112362589019</v>
       </c>
       <c r="G131">
-        <v>299.6949937337371</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>296.5995291696979</v>
+      </c>
+      <c r="H131">
+        <v>-53.44150673404976</v>
+      </c>
+      <c r="I131">
+        <v>-0.9195825602746073</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132">
-        <v>29242.88003287747</v>
+        <v>28631.67854856188</v>
       </c>
       <c r="C132">
-        <v>115.020130274394</v>
+        <v>106.6235578559919</v>
       </c>
       <c r="D132">
-        <v>9726.519967122527</v>
+        <v>10337.72145143812</v>
       </c>
       <c r="E132">
-        <v>0.3417825912531828</v>
+        <v>0.3914143244514167</v>
       </c>
       <c r="F132">
-        <v>-1519.963487779343</v>
+        <v>-1492.822590584614</v>
       </c>
       <c r="G132">
-        <v>300.1932379643407</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>297.0700975127392</v>
+      </c>
+      <c r="H132">
+        <v>-52.7437991103188</v>
+      </c>
+      <c r="I132">
+        <v>-0.881468913030993</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133">
-        <v>29356.85538031245</v>
+        <v>28737.4541952215</v>
       </c>
       <c r="C133">
-        <v>113.9753474349791</v>
+        <v>105.7756466596173</v>
       </c>
       <c r="D133">
-        <v>9612.544619687549</v>
+        <v>10231.9458047785</v>
       </c>
       <c r="E133">
-        <v>0.3474481309436707</v>
+        <v>0.396672729732981</v>
       </c>
       <c r="F133">
-        <v>-1516.881413703105</v>
+        <v>-1488.170272860138</v>
       </c>
       <c r="G133">
-        <v>300.68614201765</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>297.5360724133776</v>
+      </c>
+      <c r="H133">
+        <v>-52.0518122198334</v>
+      </c>
+      <c r="I133">
+        <v>-0.8479111963746444</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134">
-        <v>29469.80749672183</v>
+        <v>28842.41166671503</v>
       </c>
       <c r="C134">
-        <v>112.9521164093752</v>
+        <v>104.9574714935243</v>
       </c>
       <c r="D134">
-        <v>9499.592503278174</v>
+        <v>10126.98833328497</v>
       </c>
       <c r="E134">
-        <v>0.3531548419634794</v>
+        <v>0.4019425512307725</v>
       </c>
       <c r="F134">
-        <v>-1513.913126025421</v>
+        <v>-1484.052629573067</v>
       </c>
       <c r="G134">
-        <v>301.1738250900156</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>297.9976217346135</v>
+      </c>
+      <c r="H134">
+        <v>-51.36532827301247</v>
+      </c>
+      <c r="I134">
+        <v>-0.818175166092951</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135">
-        <v>29581.75716269182</v>
+        <v>28946.57748804186</v>
       </c>
       <c r="C135">
-        <v>111.949665969993</v>
+        <v>104.1658213268358</v>
       </c>
       <c r="D135">
-        <v>9387.64283730818</v>
+        <v>10022.82251195814</v>
       </c>
       <c r="E135">
-        <v>0.3589027878284319</v>
+        <v>0.4072243855424236</v>
       </c>
       <c r="F135">
-        <v>-1511.052373197068</v>
+        <v>-1480.384181663848</v>
       </c>
       <c r="G135">
-        <v>301.6564020098733</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>298.4548954617414</v>
+      </c>
+      <c r="H135">
+        <v>-50.68415428301949</v>
+      </c>
+      <c r="I135">
+        <v>-0.7916501666885125</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136">
-        <v>29692.72442916622</v>
+        <v>29049.97548107204</v>
       </c>
       <c r="C136">
-        <v>110.9672664744003</v>
+        <v>103.3979930301762</v>
       </c>
       <c r="D136">
-        <v>9276.675570833781</v>
+        <v>9919.424518927965</v>
       </c>
       <c r="E136">
-        <v>0.3646920280078043</v>
+        <v>0.4125187188987489</v>
       </c>
       <c r="F136">
-        <v>-1508.293342155173</v>
+        <v>-1477.093834256843</v>
       </c>
       <c r="G136">
-        <v>302.1339834714619</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>298.9080285166586</v>
+      </c>
+      <c r="H136">
+        <v>-50.00811810260833</v>
+      </c>
+      <c r="I136">
+        <v>-0.7678282966596175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137">
-        <v>29802.728656133</v>
+        <v>29152.62718697144</v>
       </c>
       <c r="C137">
-        <v>110.0042269667793</v>
+        <v>102.6517058994065</v>
       </c>
       <c r="D137">
-        <v>9166.671343867001</v>
+        <v>9816.772813028558</v>
       </c>
       <c r="E137">
-        <v>0.3705226182126352</v>
+        <v>0.4178259454062503</v>
       </c>
       <c r="F137">
-        <v>-1505.630625321812</v>
+        <v>-1474.12245799572</v>
       </c>
       <c r="G137">
-        <v>302.6066762523797</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>299.3571430963555</v>
+      </c>
+      <c r="H137">
+        <v>-49.33706512784249</v>
+      </c>
+      <c r="I137">
+        <v>-0.7462871307697316</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138">
-        <v>29911.78854863284</v>
+        <v>29254.5522175107</v>
       </c>
       <c r="C138">
-        <v>109.0598924998405</v>
+        <v>101.925030539255</v>
       </c>
       <c r="D138">
-        <v>9057.61145136716</v>
+        <v>9714.847782489302</v>
       </c>
       <c r="E138">
-        <v>0.3763946106665716</v>
+        <v>0.4231463823821013</v>
       </c>
       <c r="F138">
-        <v>-1503.05918975652</v>
+        <v>-1471.420878839034</v>
       </c>
       <c r="G138">
-        <v>303.0745834162329</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>299.8023506164607</v>
+      </c>
+      <c r="H138">
+        <v>-48.67085555655534</v>
+      </c>
+      <c r="I138">
+        <v>-0.7266753601514822</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>30019.92219029503</v>
+        <v>29355.76854721128</v>
       </c>
       <c r="C139">
-        <v>108.1336416621942</v>
+        <v>101.2163297005833</v>
       </c>
       <c r="D139">
-        <v>8949.477809704968</v>
+        <v>9613.631452788719</v>
       </c>
       <c r="E139">
-        <v>0.3823080543594599</v>
+        <v>0.4284802832300061</v>
       </c>
       <c r="F139">
-        <v>-1500.574348407702</v>
+        <v>-1468.948204701891</v>
       </c>
       <c r="G139">
-        <v>303.5378045015347</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>300.2437533268834</v>
+      </c>
+      <c r="H139">
+        <v>-48.00936210835557</v>
+      </c>
+      <c r="I139">
+        <v>-0.7087008386716445</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140">
-        <v>30127.14707459172</v>
+        <v>29456.29275628961</v>
       </c>
       <c r="C140">
-        <v>107.2248842966862</v>
+        <v>100.5242090783253</v>
       </c>
       <c r="D140">
-        <v>8842.25292540828</v>
+        <v>9513.107243710394</v>
       </c>
       <c r="E140">
-        <v>0.3882629952840793</v>
+        <v>0.4338278482373373</v>
       </c>
       <c r="F140">
-        <v>-1498.171733391838</v>
+        <v>-1466.670431086909</v>
       </c>
       <c r="G140">
-        <v>303.9964356979301</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>300.6814456552134</v>
+      </c>
+      <c r="H140">
+        <v>-47.35246812859879</v>
+      </c>
+      <c r="I140">
+        <v>-0.6921206222579936</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141">
-        <v>30233.48013398752</v>
+        <v>29556.14023270344</v>
       </c>
       <c r="C141">
-        <v>106.3330593958028</v>
+        <v>99.84747641383218</v>
       </c>
       <c r="D141">
-        <v>8735.919866012478</v>
+        <v>9413.25976729656</v>
       </c>
       <c r="E141">
-        <v>0.3942594766565527</v>
+        <v>0.4391892336165905</v>
       </c>
       <c r="F141">
-        <v>-1495.847271217227</v>
+        <v>-1464.559278571479</v>
       </c>
       <c r="G141">
-        <v>304.4505700107317</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>301.1155153241413</v>
+      </c>
+      <c r="H141">
+        <v>-46.70006601168046</v>
+      </c>
+      <c r="I141">
+        <v>-0.6767326644931586</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142">
-        <v>30338.93776714843</v>
+        <v>29655.32534022508</v>
       </c>
       <c r="C142">
-        <v>105.4576331609037</v>
+        <v>99.18510752163824</v>
       </c>
       <c r="D142">
-        <v>8630.462232851576</v>
+        <v>9314.07465977492</v>
       </c>
       <c r="E142">
-        <v>0.4002975391210755</v>
+        <v>0.4445645590655788</v>
       </c>
       <c r="F142">
-        <v>-1493.597159860376</v>
+        <v>-1462.59122347546</v>
       </c>
       <c r="G142">
-        <v>304.9002974146808</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>301.5460442813704</v>
+      </c>
+      <c r="H142">
+        <v>-46.05205588975468</v>
+      </c>
+      <c r="I142">
+        <v>-0.662368892193939</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143">
-        <v>30443.53586436117</v>
+        <v>29753.86155831384</v>
       </c>
       <c r="C143">
-        <v>104.5980972127435</v>
+        <v>98.53621808876049</v>
       </c>
       <c r="D143">
-        <v>8525.864135638833</v>
+        <v>9215.53844168616</v>
       </c>
       <c r="E143">
-        <v>0.4063772209396894</v>
+        <v>0.449953914079478</v>
       </c>
       <c r="F143">
-        <v>-1491.417847597375</v>
+        <v>-1460.746689778516</v>
       </c>
       <c r="G143">
-        <v>305.3457049977704</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>301.9731094740184</v>
+      </c>
+      <c r="H143">
+        <v>-45.40834454193924</v>
+      </c>
+      <c r="I143">
+        <v>-0.6488894328777555</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>30547.28983130263</v>
+        <v>29851.76159859775</v>
       </c>
       <c r="C144">
-        <v>103.7539669414592</v>
+        <v>97.90004028390965</v>
       </c>
       <c r="D144">
-        <v>8422.110168697374</v>
+        <v>9117.638401402251</v>
       </c>
       <c r="E144">
-        <v>0.4124985581678674</v>
+        <v>0.4553573632126293</v>
       </c>
       <c r="F144">
-        <v>-1489.306013489275</v>
+        <v>-1459.009375792403</v>
       </c>
       <c r="G144">
-        <v>305.786877095901</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>302.3967834941174</v>
+      </c>
+      <c r="H144">
+        <v>-44.76884448654318</v>
+      </c>
+      <c r="I144">
+        <v>-0.6361778048508455</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>30650.21461128756</v>
+        <v>29949.03750196941</v>
       </c>
       <c r="C145">
-        <v>102.924779984938</v>
+        <v>97.27590337165989</v>
       </c>
       <c r="D145">
-        <v>8319.185388712438</v>
+        <v>9020.36249803059</v>
       </c>
       <c r="E145">
-        <v>0.4186615848167183</v>
+        <v>0.4607749504579749</v>
       </c>
       <c r="F145">
-        <v>-1487.258549419221</v>
+        <v>-1457.3656935167</v>
       </c>
       <c r="G145">
-        <v>306.2238954190763</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>302.817135117334</v>
+      </c>
+      <c r="H145">
+        <v>-44.13347322510062</v>
+      </c>
+      <c r="I145">
+        <v>-0.6241369122497549</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>30752.32470611277</v>
+        <v>30045.70071962778</v>
       </c>
       <c r="C146">
-        <v>102.1100948252012</v>
+        <v>96.66321765836629</v>
       </c>
       <c r="D146">
-        <v>8217.075293887236</v>
+        <v>8923.699280372224</v>
       </c>
       <c r="E146">
-        <v>0.4248663330026274</v>
+        <v>0.4662067028863678</v>
       </c>
       <c r="F146">
-        <v>-1485.272543579466</v>
+        <v>-1455.804302235729</v>
       </c>
       <c r="G146">
-        <v>306.656839169789</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>303.2342297532844</v>
+      </c>
+      <c r="H146">
+        <v>-43.50215261221853</v>
+      </c>
+      <c r="I146">
+        <v>-0.6126857132935992</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>30853.63419560593</v>
+        <v>30141.76218083471</v>
       </c>
       <c r="C147">
-        <v>101.3094894931618</v>
+        <v>96.06146120693626</v>
       </c>
       <c r="D147">
-        <v>8115.765804394076</v>
+        <v>8827.637819165288</v>
       </c>
       <c r="E147">
-        <v>0.4311128330851478</v>
+        <v>0.4716526336661157</v>
       </c>
       <c r="F147">
-        <v>-1483.345265308109</v>
+        <v>-1454.315720913721</v>
       </c>
       <c r="G147">
-        <v>307.0857851541891</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>303.6481298226976</v>
+      </c>
+      <c r="H147">
+        <v>-42.87480832961574</v>
+      </c>
+      <c r="I147">
+        <v>-0.60175645143004</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>30954.15675597873</v>
+        <v>30237.23234968478</v>
       </c>
       <c r="C148">
-        <v>100.5225603728052</v>
+        <v>95.47016885006738</v>
       </c>
       <c r="D148">
-        <v>8015.243244021269</v>
+        <v>8732.167650315219</v>
       </c>
       <c r="E148">
-        <v>0.4374011137939468</v>
+        <v>0.4771127445644346</v>
       </c>
       <c r="F148">
-        <v>-1481.474151178143</v>
+        <v>-1452.892006438546</v>
       </c>
       <c r="G148">
-        <v>307.5108078865836</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>304.0588950740766</v>
+      </c>
+      <c r="H148">
+        <v>-42.25136944638272</v>
+      </c>
+      <c r="I148">
+        <v>-0.5912923568688786</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>31053.90567707525</v>
+        <v>30332.12127279397</v>
       </c>
       <c r="C149">
-        <v>99.74892109651401</v>
+        <v>94.88892310919292</v>
       </c>
       <c r="D149">
-        <v>7915.494322924755</v>
+        <v>8637.278727206027</v>
       </c>
       <c r="E149">
-        <v>0.4437312023455926</v>
+        <v>0.4825870280165859</v>
       </c>
       <c r="F149">
-        <v>-1479.656792245013</v>
+        <v>-1451.526486846973</v>
       </c>
       <c r="G149">
-        <v>307.9319796877632</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>304.4665828503375</v>
+      </c>
+      <c r="H149">
+        <v>-41.63176805054577</v>
+      </c>
+      <c r="I149">
+        <v>-0.5812457408744596</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>31152.89387859915</v>
+        <v>30426.43861948551</v>
       </c>
       <c r="C150">
-        <v>98.98820152390103</v>
+        <v>94.31734669153475</v>
       </c>
       <c r="D150">
-        <v>7816.506121400853</v>
+        <v>8542.961380514491</v>
       </c>
       <c r="E150">
-        <v>0.4501031245509293</v>
+        <v>0.4880754688348891</v>
       </c>
       <c r="F150">
-        <v>-1477.890922362972</v>
+        <v>-1450.213540410043</v>
       </c>
       <c r="G150">
-        <v>308.3493707776168</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>304.8712483140995</v>
+      </c>
+      <c r="H150">
+        <v>-41.01593893956711</v>
+      </c>
+      <c r="I150">
+        <v>-0.5715764176581644</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
-        <v>31251.13392539627</v>
+        <v>30520.19371577785</v>
       </c>
       <c r="C151">
-        <v>98.24004679711882</v>
+        <v>93.75509629234185</v>
       </c>
       <c r="D151">
-        <v>7718.266074603733</v>
+        <v>8449.206284222149</v>
       </c>
       <c r="E151">
-        <v>0.4565169049137671</v>
+        <v>0.4935780456183075</v>
       </c>
       <c r="F151">
-        <v>-1476.174407485183</v>
+        <v>-1448.948412924312</v>
       </c>
       <c r="G151">
-        <v>308.7630493624505</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>305.2729446387946</v>
+      </c>
+      <c r="H151">
+        <v>-40.40381935953905</v>
+      </c>
+      <c r="I151">
+        <v>-0.5622503991929104</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152">
-        <v>31348.63804186246</v>
+        <v>30613.3955732531</v>
       </c>
       <c r="C152">
-        <v>97.50411646619068</v>
+        <v>93.20185747524764</v>
       </c>
       <c r="D152">
-        <v>7620.76195813754</v>
+        <v>8356.004426746902</v>
       </c>
       <c r="E152">
-        <v>0.4629725667215677</v>
+        <v>0.4990947319134835</v>
       </c>
       <c r="F152">
-        <v>-1474.505235867268</v>
+        <v>-1447.727066789754</v>
       </c>
       <c r="G152">
-        <v>309.173081717396</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>305.6717231715185</v>
+      </c>
+      <c r="H152">
+        <v>-39.79534878460175</v>
+      </c>
+      <c r="I152">
+        <v>-0.5532388170942077</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>31445.41812554091</v>
+        <v>30706.0529136952</v>
       </c>
       <c r="C153">
-        <v>96.78008367844453</v>
+        <v>92.65734044210073</v>
       </c>
       <c r="D153">
-        <v>7523.981874459096</v>
+        <v>8263.347086304802</v>
       </c>
       <c r="E153">
-        <v>0.4694701321287708</v>
+        <v>0.5046254971698458</v>
       </c>
       <c r="F153">
-        <v>-1472.881509099031</v>
+        <v>-1446.546056495858</v>
       </c>
       <c r="G153">
-        <v>309.5795322642601</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>306.067633572505</v>
+      </c>
+      <c r="H153">
+        <v>-39.19046872958739</v>
+      </c>
+      <c r="I153">
+        <v>-0.5445170331469065</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154">
-        <v>31541.48575996754</v>
+        <v>30798.17419023098</v>
       </c>
       <c r="C154">
-        <v>96.06763442663384</v>
+        <v>92.1212765357777</v>
       </c>
       <c r="D154">
-        <v>7427.914240032464</v>
+        <v>8171.225809769025</v>
       </c>
       <c r="E154">
-        <v>0.476009622233367</v>
+        <v>0.5101703075243788</v>
       </c>
       <c r="F154">
-        <v>-1471.301433894071</v>
+        <v>-1445.402426014678</v>
       </c>
       <c r="G154">
-        <v>309.9824636451369</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>306.4607239352486</v>
+      </c>
+      <c r="H154">
+        <v>-38.58912259011817</v>
+      </c>
+      <c r="I154">
+        <v>-0.536063906323033</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155">
-        <v>31636.85222681833</v>
+        <v>30889.76760557734</v>
       </c>
       <c r="C155">
-        <v>95.36646685079657</v>
+        <v>91.59341534636117</v>
       </c>
       <c r="D155">
-        <v>7332.547773181668</v>
+        <v>8079.632394422664</v>
       </c>
       <c r="E155">
-        <v>0.4825910571472814</v>
+        <v>0.5157291264457333</v>
       </c>
       <c r="F155">
-        <v>-1469.763314571949</v>
+        <v>-1444.293624338741</v>
       </c>
       <c r="G155">
-        <v>310.3819367920775</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>306.8510408905882</v>
+      </c>
+      <c r="H155">
+        <v>-37.99125550540097</v>
+      </c>
+      <c r="I155">
+        <v>-0.5278611894165284</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156">
-        <v>31731.52851740767</v>
+        <v>30980.84112789083</v>
       </c>
       <c r="C156">
-        <v>94.67629058933487</v>
+        <v>91.0735223134933</v>
       </c>
       <c r="D156">
-        <v>7237.871482592334</v>
+        <v>7988.55887210917</v>
       </c>
       <c r="E156">
-        <v>0.4892144560610912</v>
+        <v>0.5213019152623798</v>
       </c>
       <c r="F156">
-        <v>-1468.26554617243</v>
+        <v>-1443.217436024294</v>
       </c>
       <c r="G156">
-        <v>310.7780109930905</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>307.2386296974761</v>
+      </c>
+      <c r="H156">
+        <v>-37.39681423980309</v>
+      </c>
+      <c r="I156">
+        <v>-0.5198930328678646</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157">
-        <v>31825.52534358286</v>
+        <v>31071.40250462723</v>
       </c>
       <c r="C157">
-        <v>93.99682617519774</v>
+        <v>90.56137673640066</v>
       </c>
       <c r="D157">
-        <v>7143.874656417138</v>
+        <v>7897.997495372769</v>
       </c>
       <c r="E157">
-        <v>0.4958798373035639</v>
+        <v>0.5268886335953186</v>
       </c>
       <c r="F157">
-        <v>-1466.806608145995</v>
+        <v>-1442.171924124093</v>
       </c>
       <c r="G157">
-        <v>311.1707439547186</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>307.6235343226727</v>
+      </c>
+      <c r="H157">
+        <v>-36.80574707998851</v>
+      </c>
+      <c r="I157">
+        <v>-0.5121455770926353</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158">
-        <v>31918.85314805628</v>
+        <v>31161.45927474586</v>
       </c>
       <c r="C158">
-        <v>93.32780447341493</v>
+        <v>90.05677011862898</v>
       </c>
       <c r="D158">
-        <v>7050.546851943724</v>
+        <v>7807.940725254139</v>
       </c>
       <c r="E158">
-        <v>0.5025872183964635</v>
+        <v>0.5324892397123501</v>
       </c>
       <c r="F158">
-        <v>-1465.3850585693</v>
+        <v>-1441.15538333394</v>
       </c>
       <c r="G158">
-        <v>311.5601918614225</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>308.0057975112064</v>
+      </c>
+      <c r="H158">
+        <v>-36.21800374496927</v>
+      </c>
+      <c r="I158">
+        <v>-0.5046066177716853</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159">
-        <v>32011.52211421285</v>
+        <v>31251.01877953329</v>
       </c>
       <c r="C159">
-        <v>92.66896615656705</v>
+        <v>89.55950478743156</v>
       </c>
       <c r="D159">
-        <v>6957.877885787155</v>
+        <v>7718.381220466708</v>
       </c>
       <c r="E159">
-        <v>0.5093366161050366</v>
+        <v>0.5381036908179688</v>
       </c>
       <c r="F159">
-        <v>-1463.999528838508</v>
+        <v>-1440.166301546383</v>
       </c>
       <c r="G159">
-        <v>311.9464094319808</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>308.3854608491092</v>
+      </c>
+      <c r="H159">
+        <v>-35.63353530689936</v>
+      </c>
+      <c r="I159">
+        <v>-0.4972653311974042</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160">
-        <v>32103.54217542793</v>
+        <v>31340.08817227175</v>
       </c>
       <c r="C160">
-        <v>92.02006121508458</v>
+        <v>89.06939273845163</v>
       </c>
       <c r="D160">
-        <v>6865.857824572071</v>
+        <v>7629.311827728256</v>
       </c>
       <c r="E160">
-        <v>0.5161280464845555</v>
+        <v>0.5437319432904997</v>
       </c>
       <c r="F160">
-        <v>-1462.648718797432</v>
+        <v>-1439.20332831421</v>
       </c>
       <c r="G160">
-        <v>312.3294499730986</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>308.7625648196686</v>
+      </c>
+      <c r="H160">
+        <v>-35.05229412082894</v>
+      </c>
+      <c r="I160">
+        <v>-0.4901120489799364</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161">
-        <v>32194.92302392748</v>
+        <v>31428.67442693693</v>
       </c>
       <c r="C161">
-        <v>91.38084849954909</v>
+        <v>88.58625466518781</v>
       </c>
       <c r="D161">
-        <v>6774.476976072521</v>
+        <v>7540.725573063068</v>
       </c>
       <c r="E161">
-        <v>0.522961524923265</v>
+        <v>0.5493739528760488</v>
       </c>
       <c r="F161">
-        <v>-1461.331392261173</v>
+        <v>-1438.265248984909</v>
       </c>
       <c r="G161">
-        <v>312.7093654304038</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>309.1371488542143</v>
+      </c>
+      <c r="H161">
+        <v>-34.47423376195638</v>
+      </c>
+      <c r="I161">
+        <v>-0.4831380732638184</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162">
-        <v>32285.67411921991</v>
+        <v>31516.78434607698</v>
       </c>
       <c r="C162">
-        <v>90.75109529242633</v>
+        <v>88.10991914004111</v>
       </c>
       <c r="D162">
-        <v>6683.725880780094</v>
+        <v>7452.615653923025</v>
       </c>
       <c r="E162">
-        <v>0.5298370661820485</v>
+        <v>0.555029674847144</v>
       </c>
       <c r="F162">
-        <v>-1460.046372899465</v>
+        <v>-1437.350963483001</v>
       </c>
       <c r="G162">
-        <v>313.0862064369945</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>309.5092513782756</v>
+      </c>
+      <c r="H162">
+        <v>-33.89930896917931</v>
+      </c>
+      <c r="I162">
+        <v>-0.4763355251467019</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163">
-        <v>32375.8046961268</v>
+        <v>31604.42456799674</v>
       </c>
       <c r="C163">
-        <v>90.1305769068931</v>
+        <v>87.64022191976547</v>
       </c>
       <c r="D163">
-        <v>6593.5953038732</v>
+        <v>7364.975432003259</v>
       </c>
       <c r="E163">
-        <v>0.5367546844310986</v>
+        <v>0.560699064132532</v>
       </c>
       <c r="F163">
-        <v>-1458.792540447114</v>
+        <v>-1436.459468896887</v>
       </c>
       <c r="G163">
-        <v>313.4600223596883</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>309.8789098537979</v>
+      </c>
+      <c r="H163">
+        <v>-33.32747559396044</v>
+      </c>
+      <c r="I163">
+        <v>-0.4696972202756537</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164">
-        <v>32465.32377243743</v>
+        <v>31691.60157334985</v>
       </c>
       <c r="C164">
-        <v>89.51907631063133</v>
+        <v>87.1770053531018</v>
       </c>
       <c r="D164">
-        <v>6504.076227562568</v>
+        <v>7277.798426650155</v>
       </c>
       <c r="E164">
-        <v>0.5437143932838587</v>
+        <v>0.5663820754234388</v>
       </c>
       <c r="F164">
-        <v>-1457.568827212021</v>
+        <v>-1435.589845176224</v>
       </c>
       <c r="G164">
-        <v>313.830861343114</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>310.2461608179834</v>
+      </c>
+      <c r="H164">
+        <v>-32.75869055370115</v>
+      </c>
+      <c r="I164">
+        <v>-0.4632165666636627</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165">
-        <v>32554.24015621009</v>
+        <v>31778.32169122229</v>
       </c>
       <c r="C165">
-        <v>88.91638377265458</v>
+        <v>86.72011787244773</v>
       </c>
       <c r="D165">
-        <v>6415.159843789912</v>
+        <v>7191.078308777709</v>
       </c>
       <c r="E165">
-        <v>0.550716205828469</v>
+        <v>0.5720786632606268</v>
       </c>
       <c r="F165">
-        <v>-1456.374214853905</v>
+        <v>-1434.741243369759</v>
       </c>
       <c r="G165">
-        <v>314.1987703517741</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>310.6110399192222</v>
+      </c>
+      <c r="H165">
+        <v>-32.19291178895951</v>
+      </c>
+      <c r="I165">
+        <v>-0.4568874806540713</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166">
-        <v>32642.56245274149</v>
+        <v>31864.59110477705</v>
       </c>
       <c r="C166">
-        <v>88.32229653140553</v>
+        <v>86.26941355475387</v>
       </c>
       <c r="D166">
-        <v>6326.837547258507</v>
+        <v>7104.808895222955</v>
       </c>
       <c r="E166">
-        <v>0.5577601346569356</v>
+        <v>0.5777887821058055</v>
       </c>
       <c r="F166">
-        <v>-1455.207731409469</v>
+        <v>-1433.912875936185</v>
       </c>
       <c r="G166">
-        <v>314.5637952101993</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>310.9735819504986</v>
+      </c>
+      <c r="H166">
+        <v>-31.63009822396733</v>
+      </c>
+      <c r="I166">
+        <v>-0.4507043176938694</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167">
-        <v>32730.29907122401</v>
+        <v>31950.41585651662</v>
       </c>
       <c r="C167">
-        <v>87.73661848252044</v>
+        <v>85.82475173957179</v>
       </c>
       <c r="D167">
-        <v>6239.100928775988</v>
+        <v>7018.984143483383</v>
       </c>
       <c r="E167">
-        <v>0.5648461918922191</v>
+        <v>0.583512386400275</v>
       </c>
       <c r="F167">
-        <v>-1454.068448541993</v>
+        <v>-1433.104008745321</v>
       </c>
       <c r="G167">
-        <v>314.9259806413031</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>311.3338208805931</v>
+      </c>
+      <c r="H167">
+        <v>-31.07020972999698</v>
+      </c>
+      <c r="I167">
+        <v>-0.4446618151820765</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168">
-        <v>32817.45823110881</v>
+        <v>32035.80185321103</v>
       </c>
       <c r="C168">
-        <v>87.15915988479874</v>
+        <v>85.38599669441267</v>
       </c>
       <c r="D168">
-        <v>6151.941768891193</v>
+        <v>6933.598146788972</v>
       </c>
       <c r="E168">
-        <v>0.5719743892134184</v>
+        <v>0.58924943061318</v>
       </c>
       <c r="F168">
-        <v>-1452.955478995468</v>
+        <v>-1432.313954456869</v>
       </c>
       <c r="G168">
-        <v>315.2853703030422</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>311.6917898833407</v>
+      </c>
+      <c r="H168">
+        <v>-30.51320709120716</v>
+      </c>
+      <c r="I168">
+        <v>-0.4387550451591249</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169">
-        <v>32904.04796819185</v>
+        <v>32120.75487053043</v>
       </c>
       <c r="C169">
-        <v>86.58973708304416</v>
+        <v>84.95301731939875</v>
       </c>
       <c r="D169">
-        <v>6065.35203180815</v>
+        <v>6848.645129469573</v>
       </c>
       <c r="E169">
-        <v>0.5791447378792133</v>
+        <v>0.5949998692812785</v>
       </c>
       <c r="F169">
-        <v>-1451.867974235269</v>
+        <v>-1431.542067021505</v>
       </c>
       <c r="G169">
-        <v>315.6420068234763</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>312.0475213651708</v>
+      </c>
+      <c r="H169">
+        <v>-29.95905197266043</v>
+      </c>
+      <c r="I169">
+        <v>-0.4329793750139075</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170">
-        <v>32990.07614043841</v>
+        <v>32205.28055741511</v>
       </c>
       <c r="C170">
-        <v>86.02817224656052</v>
+        <v>84.52568688467605</v>
       </c>
       <c r="D170">
-        <v>5979.323859561591</v>
+        <v>6764.119442584895</v>
       </c>
       <c r="E170">
-        <v>0.5863572487497104</v>
+        <v>0.6007636570417916</v>
       </c>
       <c r="F170">
-        <v>-1450.805122259109</v>
+        <v>-1430.787737096299</v>
       </c>
       <c r="G170">
-        <v>315.9959318343176</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>312.4010469911086</v>
+      </c>
+      <c r="H170">
+        <v>-29.40770689025753</v>
+      </c>
+      <c r="I170">
+        <v>-0.4273304347227018</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171">
-        <v>33075.5504335606</v>
+        <v>32289.38444021037</v>
       </c>
       <c r="C171">
-        <v>85.47429312218995</v>
+        <v>84.10388279526498</v>
       </c>
       <c r="D171">
-        <v>5893.849566439399</v>
+        <v>6680.01555978963</v>
       </c>
       <c r="E171">
-        <v>0.5936119323068245</v>
+        <v>0.6065407486596061</v>
       </c>
       <c r="F171">
-        <v>-1449.766145563573</v>
+        <v>-1430.050388205243</v>
       </c>
       <c r="G171">
-        <v>316.3471860030508</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>312.7523977093967</v>
+      </c>
+      <c r="H171">
+        <v>-28.85913518237597</v>
+      </c>
+      <c r="I171">
+        <v>-0.4218040894110686</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172">
-        <v>33160.47836636148</v>
+        <v>32373.07192658938</v>
       </c>
       <c r="C172">
-        <v>84.92793280087648</v>
+        <v>83.68748637900904</v>
       </c>
       <c r="D172">
-        <v>5808.921633638522</v>
+        <v>6596.328073410619</v>
       </c>
       <c r="E172">
-        <v>0.6009087986733178</v>
+        <v>0.6123310990498484</v>
       </c>
       <c r="F172">
-        <v>-1448.750299252955</v>
+        <v>-1429.32947350731</v>
       </c>
       <c r="G172">
-        <v>316.6958090637031</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>313.1016037748655</v>
+      </c>
+      <c r="H172">
+        <v>-28.3133009830347</v>
+      </c>
+      <c r="I172">
+        <v>-0.4163964162559353</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173">
-        <v>33244.8672958583</v>
+        <v>32456.34830928346</v>
       </c>
       <c r="C173">
-        <v>84.38892949682355</v>
+        <v>83.27638269407873</v>
       </c>
       <c r="D173">
-        <v>5724.532704141697</v>
+        <v>6513.05169071654</v>
       </c>
       <c r="E173">
-        <v>0.6082478576306009</v>
+        <v>0.6181346632966774</v>
       </c>
       <c r="F173">
-        <v>-1447.756869278364</v>
+        <v>-1428.624473060381</v>
       </c>
       <c r="G173">
-        <v>317.0418398463335</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>313.4486947711658</v>
+      </c>
+      <c r="H173">
+        <v>-27.77016919643492</v>
+      </c>
+      <c r="I173">
+        <v>-0.411103684930314</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174">
-        <v>33328.7244221967</v>
+        <v>32539.2187696366</v>
       </c>
       <c r="C174">
-        <v>83.85712633839202</v>
+        <v>82.87046035313523</v>
       </c>
       <c r="D174">
-        <v>5640.675577803304</v>
+        <v>6430.181230363403</v>
       </c>
       <c r="E174">
-        <v>0.6156291186354008</v>
+        <v>0.6239513966689604</v>
       </c>
       <c r="F174">
-        <v>-1446.785170796262</v>
+        <v>-1427.934891490466</v>
       </c>
       <c r="G174">
-        <v>317.3853163053115</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>313.7936996319568</v>
+      </c>
+      <c r="H174">
+        <v>-27.22970547275035</v>
+      </c>
+      <c r="I174">
+        <v>-0.4059223409435084</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175">
-        <v>33412.05679336665</v>
+        <v>32621.68838099838</v>
       </c>
       <c r="C175">
-        <v>83.33237116995494</v>
+        <v>82.46961136178274</v>
       </c>
       <c r="D175">
-        <v>5557.343206633348</v>
+        <v>6347.71161900162</v>
       </c>
       <c r="E175">
-        <v>0.6230525908353799</v>
+        <v>0.6297812546333865</v>
       </c>
       <c r="F175">
-        <v>-1445.834546636587</v>
+        <v>-1427.260255992808</v>
       </c>
       <c r="G175">
-        <v>317.7262755464448</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>314.1366466611346</v>
+      </c>
+      <c r="H175">
+        <v>-26.69187618505849</v>
+      </c>
+      <c r="I175">
+        <v>-0.4008489913524915</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176">
-        <v>33494.87130973065</v>
+        <v>32703.76211196774</v>
       </c>
       <c r="C176">
-        <v>82.81451636398955</v>
+        <v>82.07373096936277</v>
       </c>
       <c r="D176">
-        <v>5474.528690269355</v>
+        <v>6265.637888032259</v>
       </c>
       <c r="E176">
-        <v>0.6305182830837891</v>
+        <v>0.6356241928654673</v>
       </c>
       <c r="F176">
-        <v>-1444.904365871564</v>
+        <v>-1426.600114605461</v>
       </c>
       <c r="G176">
-        <v>318.0647538530178</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>314.4775635521696</v>
+      </c>
+      <c r="H176">
+        <v>-26.15664840732052</v>
+      </c>
+      <c r="I176">
+        <v>-0.3958803924199739</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177">
-        <v>33577.17472837339</v>
+        <v>32785.44482949823</v>
       </c>
       <c r="C177">
-        <v>82.30341864274429</v>
+        <v>81.68271753048774</v>
       </c>
       <c r="D177">
-        <v>5392.225271626608</v>
+        <v>6183.955170501773</v>
       </c>
       <c r="E177">
-        <v>0.6380262039532298</v>
+        <v>0.641480167258769</v>
       </c>
       <c r="F177">
-        <v>-1443.994022477136</v>
+        <v>-1425.954034707161</v>
       </c>
       <c r="G177">
-        <v>318.4007867107934</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>314.8164774066169</v>
+      </c>
+      <c r="H177">
+        <v>-25.62398989332937</v>
+      </c>
+      <c r="I177">
+        <v>-0.3910134388750315</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178">
-        <v>33658.97366728226</v>
+        <v>32866.74130187422</v>
       </c>
       <c r="C178">
-        <v>81.79893890887064</v>
+        <v>81.29647237598942</v>
       </c>
       <c r="D178">
-        <v>5310.42633271774</v>
+        <v>6102.658698125786</v>
       </c>
       <c r="E178">
-        <v>0.6455763617485902</v>
+        <v>0.6473491339326924</v>
       </c>
       <c r="F178">
-        <v>-1443.102934079723</v>
+        <v>-1425.321601700575</v>
       </c>
       <c r="G178">
-        <v>318.7344088320322</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>315.1534147518551</v>
+      </c>
+      <c r="H178">
+        <v>-25.09386905655651</v>
+      </c>
+      <c r="I178">
+        <v>-0.386245154498317</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179">
-        <v>33740.27460936672</v>
+        <v>32947.6562015664</v>
       </c>
       <c r="C179">
-        <v>81.30094208445769</v>
+        <v>80.91489969218323</v>
       </c>
       <c r="D179">
-        <v>5229.125390633279</v>
+        <v>6021.743798433599</v>
       </c>
       <c r="E179">
-        <v>0.6531687645192191</v>
+        <v>0.6532310492390146</v>
       </c>
       <c r="F179">
-        <v>-1442.230540781638</v>
+        <v>-1424.702417849346</v>
       </c>
       <c r="G179">
-        <v>319.0656541785748</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>315.4884015581002</v>
+      </c>
+      <c r="H179">
+        <v>-24.56625495083635</v>
+      </c>
+      <c r="I179">
+        <v>-0.3815726838061959</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180">
-        <v>33821.08390632467</v>
+        <v>33028.19410797393</v>
       </c>
       <c r="C180">
-        <v>80.80929695794978</v>
+        <v>80.53790640753171</v>
       </c>
       <c r="D180">
-        <v>5148.316093675327</v>
+        <v>5941.205892026068</v>
       </c>
       <c r="E180">
-        <v>0.6608034200703926</v>
+        <v>0.6591258697674096</v>
       </c>
       <c r="F180">
-        <v>-1441.37630405916</v>
+        <v>-1424.096101243424</v>
       </c>
       <c r="G180">
-        <v>319.3945559840362</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>315.8214632547409</v>
+      </c>
+      <c r="H180">
+        <v>-24.04111725183406</v>
+      </c>
+      <c r="I180">
+        <v>-0.3769932846515154</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181">
-        <v>33901.40778236315</v>
+        <v>33108.35951005988</v>
       </c>
       <c r="C181">
-        <v>80.32387603846723</v>
+        <v>80.16540208593915</v>
       </c>
       <c r="D181">
-        <v>5067.992217636856</v>
+        <v>5861.040489940126</v>
       </c>
       <c r="E181">
-        <v>0.6684803359741208</v>
+        <v>0.6650335523500792</v>
       </c>
       <c r="F181">
-        <v>-1440.539705727757</v>
+        <v>-1423.502284871883</v>
       </c>
       <c r="G181">
-        <v>319.7211467751511</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>316.1526247460309</v>
+      </c>
+      <c r="H181">
+        <v>-23.51842623924918</v>
+      </c>
+      <c r="I181">
+        <v>-0.3725043215925599</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182">
-        <v>33981.25233778023</v>
+        <v>33188.15680888591</v>
       </c>
       <c r="C182">
-        <v>79.8445554170855</v>
+        <v>79.7972988260285</v>
       </c>
       <c r="D182">
-        <v>4988.147662219773</v>
+        <v>5781.243191114096</v>
       </c>
       <c r="E182">
-        <v>0.6761995195793483</v>
+        <v>0.6709540540656598</v>
       </c>
       <c r="F182">
-        <v>-1439.720246969475</v>
+        <v>-1422.920615786505</v>
       </c>
       <c r="G182">
-        <v>320.0454583923139</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>316.4819104261783</v>
+      </c>
+      <c r="H182">
+        <v>-22.99815277971142</v>
+      </c>
+      <c r="I182">
+        <v>-0.3681032599106508</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183">
-        <v>34060.62355241489</v>
+        <v>33267.59032005176</v>
       </c>
       <c r="C183">
-        <v>79.3712146346611</v>
+        <v>79.43351116585079</v>
       </c>
       <c r="D183">
-        <v>4908.776447585115</v>
+        <v>5701.809679948245</v>
       </c>
       <c r="E183">
-        <v>0.6839609780215835</v>
+        <v>0.6768873322424679</v>
       </c>
       <c r="F183">
-        <v>-1438.917447417933</v>
+        <v>-1422.350754342324</v>
       </c>
       <c r="G183">
-        <v>320.3675220093496</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>316.80934419386</v>
+      </c>
+      <c r="H183">
+        <v>-22.48026831033048</v>
+      </c>
+      <c r="I183">
+        <v>-0.3637876601777101</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184">
-        <v>34139.52728897071</v>
+        <v>33346.66427604431</v>
       </c>
       <c r="C184">
-        <v>78.90373655582191</v>
+        <v>79.07395599255581</v>
       </c>
       <c r="D184">
-        <v>4829.872711029289</v>
+        <v>5622.735723955688</v>
       </c>
       <c r="E184">
-        <v>0.6917647182320027</v>
+        <v>0.6828333444612165</v>
       </c>
       <c r="F184">
-        <v>-1438.130844296774</v>
+        <v>-1421.792373504083</v>
       </c>
       <c r="G184">
-        <v>320.6873681525515</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>317.1349494661936</v>
+      </c>
+      <c r="H184">
+        <v>-21.96474482286411</v>
+      </c>
+      <c r="I184">
+        <v>-0.359555173294984</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185">
-        <v>34217.96929621948</v>
+        <v>33425.38282850093</v>
       </c>
       <c r="C185">
-        <v>78.4420072487669</v>
+        <v>78.71855245661885</v>
       </c>
       <c r="D185">
-        <v>4751.430703780519</v>
+        <v>5544.017171499072</v>
       </c>
       <c r="E185">
-        <v>0.6996107469460584</v>
+        <v>0.688792048557238</v>
       </c>
       <c r="F185">
-        <v>-1437.359991607756</v>
+        <v>-1421.245158209384</v>
       </c>
       <c r="G185">
-        <v>321.00502671902</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>317.4587491921929</v>
+      </c>
+      <c r="H185">
+        <v>-21.45155484847241</v>
+      </c>
+      <c r="I185">
+        <v>-0.3554035359369561</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186">
-        <v>34295.95521209003</v>
+        <v>33503.7500503912</v>
       </c>
       <c r="C186">
-        <v>77.98591587054516</v>
+        <v>78.36722189027148</v>
       </c>
       <c r="D186">
-        <v>4673.444787909975</v>
+        <v>5465.6499496088</v>
       </c>
       <c r="E186">
-        <v>0.7074990707116263</v>
+        <v>0.6947634026222975</v>
       </c>
       <c r="F186">
-        <v>-1436.604459365022</v>
+        <v>-1420.708804781093</v>
       </c>
       <c r="G186">
-        <v>321.3205269943336</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>317.780765865732</v>
+      </c>
+      <c r="H186">
+        <v>-20.94067144302898</v>
+      </c>
+      <c r="I186">
+        <v>-0.3513305663473769</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187">
-        <v>34373.49056664753</v>
+        <v>33581.76993812103</v>
       </c>
       <c r="C187">
-        <v>77.53535455750676</v>
+        <v>78.01988772982837</v>
       </c>
       <c r="D187">
-        <v>4595.90943335247</v>
+        <v>5387.630061878968</v>
       </c>
       <c r="E187">
-        <v>0.7154296958967268</v>
+        <v>0.7007473650060375</v>
       </c>
       <c r="F187">
-        <v>-1435.863832872351</v>
+        <v>-1420.183020382812</v>
       </c>
       <c r="G187">
-        <v>321.6338976695833</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>318.1010215380427</v>
+      </c>
+      <c r="H187">
+        <v>-20.43206817296111</v>
+      </c>
+      <c r="I187">
+        <v>-0.3473341604431113</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188">
-        <v>34450.58078496817</v>
+        <v>33659.44641356267</v>
       </c>
       <c r="C188">
-        <v>77.09021832063907</v>
+        <v>77.676475441639</v>
       </c>
       <c r="D188">
-        <v>4518.819215031828</v>
+        <v>5309.953586437332</v>
       </c>
       <c r="E188">
-        <v>0.7234026286968416</v>
+        <v>0.7067438943171004</v>
       </c>
       <c r="F188">
-        <v>-1435.137712040478</v>
+        <v>-1419.667522512303</v>
       </c>
       <c r="G188">
-        <v>321.9451668577976</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <v>318.4195378297657</v>
+      </c>
+      <c r="H188">
+        <v>-19.9257191015945</v>
+      </c>
+      <c r="I188">
+        <v>-0.34341228818937</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189">
-        <v>34527.23118991369</v>
+        <v>33736.78332601409</v>
       </c>
       <c r="C189">
-        <v>76.65040494552107</v>
+        <v>77.3369124514233</v>
       </c>
       <c r="D189">
-        <v>4442.16881008631</v>
+        <v>5232.616673985911</v>
       </c>
       <c r="E189">
-        <v>0.7314178751418539</v>
+        <v>0.7127529494239583</v>
       </c>
       <c r="F189">
-        <v>-1434.425710741775</v>
+        <v>-1419.162038528596</v>
       </c>
       <c r="G189">
-        <v>322.2543621097858</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>318.7363359425754</v>
+      </c>
+      <c r="H189">
+        <v>-19.42159877597829</v>
+      </c>
+      <c r="I189">
+        <v>-0.339562990215704</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190">
-        <v>34603.44700481034</v>
+        <v>33813.78445409086</v>
       </c>
       <c r="C190">
-        <v>76.21581489664638</v>
+        <v>77.00112807677573</v>
       </c>
       <c r="D190">
-        <v>4365.952995189662</v>
+        <v>5155.615545909139</v>
       </c>
       <c r="E190">
-        <v>0.7394754411026341</v>
+        <v>0.7187744894554942</v>
       </c>
       <c r="F190">
-        <v>-1433.727456199842</v>
+        <v>-1418.666305209241</v>
       </c>
       <c r="G190">
-        <v>322.5615104294251</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+        <v>319.051436670401</v>
+      </c>
+      <c r="H190">
+        <v>-18.91968221416856</v>
+      </c>
+      <c r="I190">
+        <v>-0.3357843746475755</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191">
-        <v>34679.23335603622</v>
+        <v>33890.45350755351</v>
       </c>
       <c r="C191">
-        <v>75.78635122588125</v>
+        <v>76.669053462644</v>
       </c>
       <c r="D191">
-        <v>4290.166643963777</v>
+        <v>5078.946492446492</v>
       </c>
       <c r="E191">
-        <v>0.7475753322973006</v>
+        <v>0.7248084738013473</v>
       </c>
       <c r="F191">
-        <v>-1433.042588411724</v>
+        <v>-1418.180068334666</v>
       </c>
       <c r="G191">
-        <v>322.8666382884151</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>319.3648604102566</v>
+      </c>
+      <c r="H191">
+        <v>-18.41994489295031</v>
+      </c>
+      <c r="I191">
+        <v>-0.3320746141317255</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192">
-        <v>34754.59527552106</v>
+        <v>33966.79412907312</v>
       </c>
       <c r="C192">
-        <v>75.36191948483962</v>
+        <v>76.34062151960688</v>
       </c>
       <c r="D192">
-        <v>4214.804724478941</v>
+        <v>5002.605870926884</v>
       </c>
       <c r="E192">
-        <v>0.7557175542971613</v>
+        <v>0.7308548621120496</v>
       </c>
       <c r="F192">
-        <v>-1432.370759600647</v>
+        <v>-1417.703082297083</v>
       </c>
       <c r="G192">
-        <v>323.1697716405232</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>319.6766271727017</v>
+      </c>
+      <c r="H192">
+        <v>-17.92236273597774</v>
+      </c>
+      <c r="I192">
+        <v>-0.3284319430371117</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193">
-        <v>34829.53770316203</v>
+        <v>34042.80989593791</v>
       </c>
       <c r="C193">
-        <v>74.94242764097049</v>
+        <v>76.01576686479086</v>
       </c>
       <c r="D193">
-        <v>4139.862296837971</v>
+        <v>4926.590104062096</v>
       </c>
       <c r="E193">
-        <v>0.7639021125323693</v>
+        <v>0.7369136142989835</v>
       </c>
       <c r="F193">
-        <v>-1431.711633697349</v>
+        <v>-1417.235109731803</v>
       </c>
       <c r="G193">
-        <v>323.4709359353419</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>319.9867565919453</v>
+      </c>
+      <c r="H193">
+        <v>-17.42691210231548</v>
+      </c>
+      <c r="I193">
+        <v>-0.324854654816022</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194">
-        <v>34904.0654891592</v>
+        <v>34118.50432170319</v>
       </c>
       <c r="C194">
-        <v>74.52778599716602</v>
+        <v>75.69442576527935</v>
       </c>
       <c r="D194">
-        <v>4065.334510840803</v>
+        <v>4850.895678296816</v>
       </c>
       <c r="E194">
-        <v>0.7721290122973047</v>
+        <v>0.7429846905341602</v>
       </c>
       <c r="F194">
-        <v>-1431.064885848205</v>
+        <v>-1416.775921168997</v>
       </c>
       <c r="G194">
-        <v>323.7701561315791</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>320.2952679356106</v>
+      </c>
+      <c r="H194">
+        <v>-16.933569775363</v>
+      </c>
+      <c r="I194">
+        <v>-0.321341099511514</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195">
-        <v>34978.18339627391</v>
+        <v>34193.88085778707</v>
       </c>
       <c r="C195">
-        <v>74.11790711471066</v>
+        <v>75.37653608387956</v>
       </c>
       <c r="D195">
-        <v>3991.21660372609</v>
+        <v>4775.519142212936</v>
       </c>
       <c r="E195">
-        <v>0.7803982587556921</v>
+        <v>0.7490680512498548</v>
       </c>
       <c r="F195">
-        <v>-1430.430201948481</v>
+        <v>-1416.325294704337</v>
       </c>
       <c r="G195">
-        <v>324.0674567099014</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>320.6021801141729</v>
+      </c>
+      <c r="H195">
+        <v>-16.44231295214634</v>
+      </c>
+      <c r="I195">
+        <v>-0.3178896813997945</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196">
-        <v>35051.89610201331</v>
+        <v>34268.94289501419</v>
       </c>
       <c r="C196">
-        <v>73.71270573940244</v>
+        <v>75.06203722712256</v>
       </c>
       <c r="D196">
-        <v>3917.503897986688</v>
+        <v>4700.457104985813</v>
       </c>
       <c r="E196">
-        <v>0.7887098569454802</v>
+        <v>0.7551636571380898</v>
       </c>
       <c r="F196">
-        <v>-1429.807278199193</v>
+        <v>-1415.88301568702</v>
       </c>
       <c r="G196">
-        <v>324.3628616853467</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>320.907511690085</v>
+      </c>
+      <c r="H196">
+        <v>-15.95311923296195</v>
+      </c>
+      <c r="I196">
+        <v>-0.3144988567569946</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197">
-        <v>35125.208200744</v>
+        <v>34343.69376510957</v>
       </c>
       <c r="C197">
-        <v>73.31209873068781</v>
+        <v>74.75087009538103</v>
       </c>
       <c r="D197">
-        <v>3844.191799255997</v>
+        <v>4625.706234890429</v>
       </c>
       <c r="E197">
-        <v>0.7970638117834893</v>
+        <v>0.7612714691500043</v>
       </c>
       <c r="F197">
-        <v>-1429.195820686142</v>
+        <v>-1415.448876423961</v>
       </c>
       <c r="G197">
-        <v>324.6563946193276</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>321.2112808866032</v>
+      </c>
+      <c r="H197">
+        <v>-15.46596661135793</v>
+      </c>
+      <c r="I197">
+        <v>-0.3111671317415343</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198">
-        <v>35198.12420573767</v>
+        <v>34418.13674214457</v>
       </c>
       <c r="C198">
-        <v>72.91600499366089</v>
+        <v>74.4429770349972</v>
       </c>
       <c r="D198">
-        <v>3771.275794262336</v>
+        <v>4551.263257855433</v>
       </c>
       <c r="E198">
-        <v>0.8054601280698443</v>
+        <v>0.7673914484950962</v>
       </c>
       <c r="F198">
-        <v>-1428.595544979794</v>
+        <v>-1415.022675898982</v>
       </c>
       <c r="G198">
-        <v>324.9480786312377</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>321.5135055963258</v>
+      </c>
+      <c r="H198">
+        <v>-14.98083346443889</v>
+      </c>
+      <c r="I198">
+        <v>-0.307893060383833</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199">
-        <v>35270.64855115145</v>
+        <v>34492.27504393689</v>
       </c>
       <c r="C199">
-        <v>72.52434541378686</v>
+        <v>74.13830179232102</v>
       </c>
       <c r="D199">
-        <v>3698.751448848547</v>
+        <v>4477.124956063111</v>
       </c>
       <c r="E199">
-        <v>0.813898810492202</v>
+        <v>0.7735235566403613</v>
       </c>
       <c r="F199">
-        <v>-1428.006175754779</v>
+        <v>-1414.604219506015</v>
       </c>
       <c r="G199">
-        <v>325.2379364096814</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>321.8142033894556</v>
+      </c>
+      <c r="H199">
+        <v>-14.49769854348176</v>
+      </c>
+      <c r="I199">
+        <v>-0.3046752426761756</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200">
-        <v>35342.78559394567</v>
+        <v>34566.11183340645</v>
       </c>
       <c r="C200">
-        <v>72.13704279421715</v>
+        <v>73.83678946956456</v>
       </c>
       <c r="D200">
-        <v>3626.61440605433</v>
+        <v>4403.288166593549</v>
       </c>
       <c r="E200">
-        <v>0.8223798636297857</v>
+        <v>0.7796677553093433</v>
       </c>
       <c r="F200">
-        <v>-1427.427446427867</v>
+        <v>-1414.193318795421</v>
       </c>
       <c r="G200">
-        <v>325.5259902233381</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <v>322.1133915217966</v>
+      </c>
+      <c r="H200">
+        <v>-14.01654096484959</v>
+      </c>
+      <c r="I200">
+        <v>-0.3015123227564516</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201">
-        <v>35414.53961574125</v>
+        <v>34639.65021988883</v>
       </c>
       <c r="C201">
-        <v>71.75402179557209</v>
+        <v>73.53838648238504</v>
       </c>
       <c r="D201">
-        <v>3554.860384258754</v>
+        <v>4329.749780111168</v>
       </c>
       <c r="E201">
-        <v>0.8309032919572377</v>
+        <v>0.7858240064810808</v>
       </c>
       <c r="F201">
-        <v>-1426.859098813356</v>
+        <v>-1413.789791232557</v>
       </c>
       <c r="G201">
-        <v>325.8122619314791</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>322.4110869424974</v>
+      </c>
+      <c r="H201">
+        <v>-13.53734020119214</v>
+      </c>
+      <c r="I201">
+        <v>-0.298402987179534</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202">
-        <v>35485.91482461932</v>
+        <v>34712.89326040795</v>
       </c>
       <c r="C202">
-        <v>71.37520887807351</v>
+        <v>73.24304051911376</v>
       </c>
       <c r="D202">
-        <v>3483.48517538068</v>
+        <v>4256.506739592056</v>
       </c>
       <c r="E202">
-        <v>0.8394690998483014</v>
+        <v>0.7919922723889884</v>
       </c>
       <c r="F202">
-        <v>-1426.300882794866</v>
+        <v>-1413.393459967898</v>
       </c>
       <c r="G202">
-        <v>326.0967729941473</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+        <v>322.7073063015497</v>
+      </c>
+      <c r="H202">
+        <v>-13.06007607292148</v>
+      </c>
+      <c r="I202">
+        <v>-0.2953459632712754</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203">
-        <v>35556.91535686524</v>
+        <v>34785.8439609095</v>
       </c>
       <c r="C203">
-        <v>71.00053224591646</v>
+        <v>72.95070050155375</v>
       </c>
       <c r="D203">
-        <v>3412.484643134761</v>
+        <v>4183.556039090501</v>
       </c>
       <c r="E203">
-        <v>0.848077291579335</v>
+        <v>0.7981725155196561</v>
       </c>
       <c r="F203">
-        <v>-1425.752556012623</v>
+        <v>-1413.004153617985</v>
       </c>
       <c r="G203">
-        <v>326.3795444820165</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+        <v>323.0020659570508</v>
+      </c>
+      <c r="H203">
+        <v>-12.58472873995245</v>
+      </c>
+      <c r="I203">
+        <v>-0.2923400175600044</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204">
-        <v>35627.54527865902</v>
+        <v>34858.50527745677</v>
       </c>
       <c r="C204">
-        <v>70.62992179377549</v>
+        <v>72.66131654727275</v>
       </c>
       <c r="D204">
-        <v>3341.854721340984</v>
+        <v>4110.894722543228</v>
       </c>
       <c r="E204">
-        <v>0.8567278713326774</v>
+        <v>0.8043646986115774</v>
       </c>
       <c r="F204">
-        <v>-1425.213883565371</v>
+        <v>-1412.621706056583</v>
       </c>
       <c r="G204">
-        <v>326.660597085939</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>323.2953819822417</v>
+      </c>
+      <c r="H204">
+        <v>-12.11127869369735</v>
+      </c>
+      <c r="I204">
+        <v>-0.2893839542810053</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205">
-        <v>35697.80858771437</v>
+        <v>34930.88011739009</v>
       </c>
       <c r="C205">
-        <v>70.26330905534668</v>
+        <v>72.37483993332265</v>
       </c>
       <c r="D205">
-        <v>3271.591412285634</v>
+        <v>4038.519882609908</v>
       </c>
       <c r="E205">
-        <v>0.8654208431998628</v>
+        <v>0.8105687846538282</v>
       </c>
       <c r="F205">
-        <v>-1424.684637726087</v>
+        <v>-1412.245956215485</v>
       </c>
       <c r="G205">
-        <v>326.9399511261971</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>323.5872701723262</v>
+      </c>
+      <c r="H205">
+        <v>-11.63970674930555</v>
+      </c>
+      <c r="I205">
+        <v>-0.2864766139500983</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206">
-        <v>35767.7092148682</v>
+        <v>35002.97134045141</v>
       </c>
       <c r="C206">
-        <v>69.90062715383189</v>
+        <v>72.09122306132055</v>
       </c>
       <c r="D206">
-        <v>3201.690785131803</v>
+        <v>3966.42865954859</v>
       </c>
       <c r="E206">
-        <v>0.8741562111846991</v>
+        <v>0.8167847368846817</v>
       </c>
       <c r="F206">
-        <v>-1424.164597670758</v>
+        <v>-1411.876747894395</v>
       </c>
       <c r="G206">
-        <v>327.2176265614669</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <v>323.8777460510823</v>
+      </c>
+      <c r="H206">
+        <v>-11.1699940381383</v>
+      </c>
+      <c r="I206">
+        <v>-0.2836168720021028</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207">
-        <v>35837.25102562248</v>
+        <v>35074.78175987524</v>
       </c>
       <c r="C207">
-        <v>69.54181075427711</v>
+        <v>71.81041942382973</v>
       </c>
       <c r="D207">
-        <v>3132.148974377524</v>
+        <v>3894.618240124757</v>
       </c>
       <c r="E207">
-        <v>0.8829339792062127</v>
+        <v>0.8230125187901726</v>
       </c>
       <c r="F207">
-        <v>-1423.653549219498</v>
+        <v>-1411.513929579404</v>
       </c>
       <c r="G207">
-        <v>327.4936429975068</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+        <v>324.1668248772716</v>
+      </c>
+      <c r="H207">
+        <v>-10.70212200047035</v>
+      </c>
+      <c r="I207">
+        <v>-0.2808036374908252</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208">
-        <v>35906.43782164016</v>
+        <v>35146.31414344723</v>
       </c>
       <c r="C208">
-        <v>69.18679601768105</v>
+        <v>71.53238357198252</v>
       </c>
       <c r="D208">
-        <v>3062.962178359841</v>
+        <v>3823.085856552774</v>
       </c>
       <c r="E208">
-        <v>0.8917541511014734</v>
+        <v>0.8292520941026171</v>
       </c>
       <c r="F208">
-        <v>-1423.151284589361</v>
+        <v>-1411.157354269593</v>
       </c>
       <c r="G208">
-        <v>327.7680196955811</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+        <v>324.4545216508544</v>
+      </c>
+      <c r="H208">
+        <v>-10.23607237840967</v>
+      </c>
+      <c r="I208">
+        <v>-0.2780358518472017</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209">
-        <v>35975.27334219695</v>
+        <v>35217.57121453152</v>
       </c>
       <c r="C209">
-        <v>68.83552055679507</v>
+        <v>71.25707108428999</v>
       </c>
       <c r="D209">
-        <v>2994.126657803048</v>
+        <v>3751.828785468482</v>
       </c>
       <c r="E209">
-        <v>0.9006167306282927</v>
+        <v>0.8355034267990937</v>
       </c>
       <c r="F209">
-        <v>-1422.657602158193</v>
+        <v>-1410.806879311339</v>
       </c>
       <c r="G209">
-        <v>328.0407755806275</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
+        <v>324.7408511190198</v>
+      </c>
+      <c r="H209">
+        <v>-9.771827209027506</v>
+      </c>
+      <c r="I209">
+        <v>-0.2753124876925277</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210">
-        <v>36043.7612655905</v>
+        <v>35288.55565306811</v>
       </c>
       <c r="C210">
-        <v>68.48792339353938</v>
+        <v>70.9844385365862</v>
       </c>
       <c r="D210">
-        <v>2925.638734409506</v>
+        <v>3680.844346931895</v>
       </c>
       <c r="E210">
-        <v>0.9095217214678167</v>
+        <v>0.8417664810998823</v>
       </c>
       <c r="F210">
-        <v>-1422.172306238985</v>
+        <v>-1410.462366239896</v>
       </c>
       <c r="G210">
-        <v>328.3119292491797</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <v>325.0258277820345</v>
+      </c>
+      <c r="H210">
+        <v>-9.309368817690451</v>
+      </c>
+      <c r="I210">
+        <v>-0.2726325477037914</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211">
-        <v>36111.90521050846</v>
+        <v>35359.27009654116</v>
       </c>
       <c r="C211">
-        <v>68.14394491796421</v>
+        <v>70.7144434730577</v>
       </c>
       <c r="D211">
-        <v>2857.494789491539</v>
+        <v>3610.129903458837</v>
       </c>
       <c r="E211">
-        <v>0.9184691272270114</v>
+        <v>0.8480412214668722</v>
       </c>
       <c r="F211">
-        <v>-1421.69520686415</v>
+        <v>-1410.123680627898</v>
       </c>
       <c r="G211">
-        <v>328.581498977052</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
+        <v>325.3094658989193</v>
+      </c>
+      <c r="H211">
+        <v>-8.848679811588003</v>
+      </c>
+      <c r="I211">
+        <v>-0.2699950635284942</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212">
-        <v>36179.70873735715</v>
+        <v>35429.71714091948</v>
       </c>
       <c r="C212">
-        <v>67.8035268486891</v>
+        <v>70.44704437831133</v>
       </c>
       <c r="D212">
-        <v>2789.691262642853</v>
+        <v>3539.682859080523</v>
       </c>
       <c r="E212">
-        <v>0.9274589514410397</v>
+        <v>0.8543276126019425</v>
       </c>
       <c r="F212">
-        <v>-1421.226119579199</v>
+        <v>-1409.790691940406</v>
       </c>
       <c r="G212">
-        <v>328.8495027267965</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
+        <v>325.5917794929587</v>
+      </c>
+      <c r="H212">
+        <v>-8.389743073447857</v>
+      </c>
+      <c r="I212">
+        <v>-0.2673990947463647</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213">
-        <v>36247.17534955191</v>
+        <v>35499.89934156992</v>
       </c>
       <c r="C213">
-        <v>67.46661219475588</v>
+        <v>70.18220065043582</v>
       </c>
       <c r="D213">
-        <v>2722.224650448094</v>
+        <v>3469.500658430086</v>
       </c>
       <c r="E213">
-        <v>0.9364911975755501</v>
+        <v>0.8606256194453065</v>
       </c>
       <c r="F213">
-        <v>-1420.764865245374</v>
+        <v>-1409.463273396175</v>
       </c>
       <c r="G213">
-        <v>329.1159581549399</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+        <v>325.8727823570492</v>
+      </c>
+      <c r="H213">
+        <v>-7.932541755432599</v>
+      </c>
+      <c r="I213">
+        <v>-0.2648437278755083</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214">
-        <v>36314.30849477074</v>
+        <v>35569.81921414493</v>
       </c>
       <c r="C214">
-        <v>67.13314521883488</v>
+        <v>69.91987257501482</v>
       </c>
       <c r="D214">
-        <v>2655.091505229262</v>
+        <v>3399.580785855069</v>
       </c>
       <c r="E214">
-        <v>0.945565869028871</v>
+        <v>0.8669352071738458</v>
       </c>
       <c r="F214">
-        <v>-1420.31126985074</v>
+        <v>-1409.141301834842</v>
       </c>
       <c r="G214">
-        <v>329.3808826190088</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
+        <v>326.1524880588928</v>
+      </c>
+      <c r="H214">
+        <v>-7.47705927321126</v>
+      </c>
+      <c r="I214">
+        <v>-0.2623280754209905</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215">
-        <v>36381.11156617247</v>
+        <v>35639.47923544498</v>
       </c>
       <c r="C215">
-        <v>66.80307140172691</v>
+        <v>69.66002130005145</v>
       </c>
       <c r="D215">
-        <v>2588.288433827533</v>
+        <v>3329.92076455502</v>
       </c>
       <c r="E215">
-        <v>0.9546829691341114</v>
+        <v>0.8732563411994084</v>
       </c>
       <c r="F215">
-        <v>-1419.865164329336</v>
+        <v>-1408.824657589698</v>
       </c>
       <c r="G215">
-        <v>329.6442931843497</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
+        <v>326.4309099460407</v>
+      </c>
+      <c r="H215">
+        <v>-7.023279300199398</v>
+      </c>
+      <c r="I215">
+        <v>-0.2598512749633741</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216">
-        <v>36447.58790358058</v>
+        <v>35708.88184425675</v>
       </c>
       <c r="C216">
-        <v>66.47633740810591</v>
+        <v>69.40260881176579</v>
       </c>
       <c r="D216">
-        <v>2521.812096419424</v>
+        <v>3260.518155743252</v>
       </c>
       <c r="E216">
-        <v>0.9638425011611893</v>
+        <v>0.8795889871671053</v>
       </c>
       <c r="F216">
-        <v>-1419.426384387968</v>
+        <v>-1408.513224365833</v>
       </c>
       <c r="G216">
-        <v>329.9062066307526</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
+        <v>326.7080611507931</v>
+      </c>
+      <c r="H216">
+        <v>-6.571185761962077</v>
+      </c>
+      <c r="I216">
+        <v>-0.2574124882856701</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217">
-        <v>36513.74079463402</v>
+        <v>35778.02944216798</v>
       </c>
       <c r="C217">
-        <v>66.15289105345066</v>
+        <v>69.14759791122945</v>
       </c>
       <c r="D217">
-        <v>2455.659205365977</v>
+        <v>3191.370557832022</v>
       </c>
       <c r="E217">
-        <v>0.973044468318769</v>
+        <v>0.8859331109535733</v>
       </c>
       <c r="F217">
-        <v>-1418.994770340269</v>
+        <v>-1408.206889123305</v>
       </c>
       <c r="G217">
-        <v>330.1666394588842</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
+        <v>326.983954594959</v>
+      </c>
+      <c r="H217">
+        <v>-6.120762830773703</v>
+      </c>
+      <c r="I217">
+        <v>-0.2550109005363304</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218">
-        <v>36579.57347590614</v>
+        <v>35846.92439435978</v>
       </c>
       <c r="C218">
-        <v>65.83268127211586</v>
+        <v>68.89495219180243</v>
       </c>
       <c r="D218">
-        <v>2389.826524093864</v>
+        <v>3122.475605640218</v>
       </c>
       <c r="E218">
-        <v>0.9822888737561302</v>
+        <v>0.8922886786652409</v>
       </c>
       <c r="F218">
-        <v>-1418.57016694767</v>
+        <v>-1407.90554196518</v>
       </c>
       <c r="G218">
-        <v>330.4256078965366</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
+        <v>327.2586029944819</v>
+      </c>
+      <c r="H218">
+        <v>-5.671994920329826</v>
+      </c>
+      <c r="I218">
+        <v>-0.2526457194270186</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219">
-        <v>36645.08913399263</v>
+        <v>35915.56903037712</v>
       </c>
       <c r="C219">
-        <v>65.51565808649555</v>
+        <v>68.64463601733932</v>
       </c>
       <c r="D219">
-        <v>2324.31086600737</v>
+        <v>3053.830969622883</v>
       </c>
       <c r="E219">
-        <v>0.9915757205649651</v>
+        <v>0.8986556566365709</v>
       </c>
       <c r="F219">
-        <v>-1418.152423266949</v>
+        <v>-1407.609076030139</v>
       </c>
       <c r="G219">
-        <v>330.6831279047008</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+        <v>327.532018863936</v>
+      </c>
+      <c r="H219">
+        <v>-5.224866680605018</v>
+      </c>
+      <c r="I219">
+        <v>-0.2503161744631122</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220">
-        <v>36710.29090656986</v>
+        <v>35983.96564487826</v>
       </c>
       <c r="C220">
-        <v>65.20177257723418</v>
+        <v>68.39661450113383</v>
       </c>
       <c r="D220">
-        <v>2259.109093430139</v>
+        <v>2985.434355121746</v>
       </c>
       <c r="E220">
-        <v>1.000905011781101</v>
+        <v>0.9050340114282962</v>
       </c>
       <c r="F220">
-        <v>-1417.741392504016</v>
+        <v>-1407.317387389457</v>
       </c>
       <c r="G220">
-        <v>330.9392151834666</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+        <v>327.8042145208964</v>
+      </c>
+      <c r="H220">
+        <v>-4.779362992852509</v>
+      </c>
+      <c r="I220">
+        <v>-0.248021516205494</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221">
-        <v>36775.1818834243</v>
+        <v>36052.11649836383</v>
       </c>
       <c r="C221">
-        <v>64.89097685444277</v>
+        <v>68.15085348557153</v>
       </c>
       <c r="D221">
-        <v>2194.218116575699</v>
+        <v>2917.283501636171</v>
       </c>
       <c r="E221">
-        <v>1.010276750386162</v>
+        <v>0.9114237098256562</v>
       </c>
       <c r="F221">
-        <v>-1417.336931873667</v>
+        <v>-1407.030374948162</v>
       </c>
       <c r="G221">
-        <v>331.1938851777593</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+        <v>328.0752020901885</v>
+      </c>
+      <c r="H221">
+        <v>-4.335468964740134</v>
+      </c>
+      <c r="I221">
+        <v>-0.2457610155622945</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222">
-        <v>36839.76510745418</v>
+        <v>36120.02381788629</v>
       </c>
       <c r="C222">
-        <v>64.5832240298794</v>
+        <v>67.90731952246264</v>
       </c>
       <c r="D222">
-        <v>2129.634892545822</v>
+        <v>2849.376182113709</v>
       </c>
       <c r="E222">
-        <v>1.019690939309168</v>
+        <v>0.9178247188366135</v>
       </c>
       <c r="F222">
-        <v>-1416.938902465006</v>
+        <v>-1406.747940350151</v>
       </c>
       <c r="G222">
-        <v>331.447153082916</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
+        <v>328.3449935080208</v>
+      </c>
+      <c r="H222">
+        <v>-3.893169925618754</v>
+      </c>
+      <c r="I222">
+        <v>-0.2435339631088951</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223">
-        <v>36904.04357564423</v>
+        <v>36187.68979774032</v>
       </c>
       <c r="C223">
-        <v>64.27846819005552</v>
+        <v>67.66597985402758</v>
       </c>
       <c r="D223">
-        <v>2065.35642435577</v>
+        <v>2781.710202259681</v>
       </c>
       <c r="E223">
-        <v>1.029147581428067</v>
+        <v>0.9242370056900761</v>
       </c>
       <c r="F223">
-        <v>-1416.547169112253</v>
+        <v>-1406.469987887089</v>
       </c>
       <c r="G223">
-        <v>331.6990338501075</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+        <v>328.6136005260038</v>
+      </c>
+      <c r="H223">
+        <v>-3.452451421917971</v>
+      </c>
+      <c r="I223">
+        <v>-0.2413396684350619</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224">
-        <v>36968.02024001446</v>
+        <v>36255.11660013483</v>
       </c>
       <c r="C224">
-        <v>63.97666437023123</v>
+        <v>67.42680239450958</v>
       </c>
       <c r="D224">
-        <v>2001.379759985539</v>
+        <v>2714.283399865169</v>
       </c>
       <c r="E224">
-        <v>1.038646679571222</v>
+        <v>0.9306605378341186</v>
       </c>
       <c r="F224">
-        <v>-1416.161600270715</v>
+        <v>-1406.196424410931</v>
       </c>
       <c r="G224">
-        <v>331.9495421916117</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <v>328.8810347150604</v>
+      </c>
+      <c r="H224">
+        <v>-3.013299212665331</v>
+      </c>
+      <c r="I224">
+        <v>-0.2391774595179985</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225">
-        <v>37031.69800854372</v>
+        <v>36322.30635584722</v>
       </c>
       <c r="C225">
-        <v>63.67776852926431</v>
+        <v>67.18975571238973</v>
       </c>
       <c r="D225">
-        <v>1937.701991456277</v>
+        <v>2647.093644152781</v>
       </c>
       <c r="E225">
-        <v>1.048188236518833</v>
+        <v>0.9370952829341911</v>
       </c>
       <c r="F225">
-        <v>-1415.78206789766</v>
+        <v>-1405.927159249857</v>
       </c>
       <c r="G225">
-        <v>332.1986925859428</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+        <v>329.1473074692302</v>
+      </c>
+      <c r="H225">
+        <v>-2.57569926512495</v>
+      </c>
+      <c r="I225">
+        <v>-0.237046682119848</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226">
-        <v>37095.079746069</v>
+        <v>36389.2611648604</v>
       </c>
       <c r="C226">
-        <v>63.38173752527955</v>
+        <v>66.95480901318085</v>
       </c>
       <c r="D226">
-        <v>1874.320253931</v>
+        <v>2580.138835139602</v>
       </c>
       <c r="E226">
-        <v>1.05777225500431</v>
+        <v>0.9435412088713366</v>
       </c>
       <c r="F226">
-        <v>-1415.408447337864</v>
+        <v>-1405.662104127516</v>
       </c>
       <c r="G226">
-        <v>332.4464992828409</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
+        <v>329.4124300093716</v>
+      </c>
+      <c r="H226">
+        <v>-2.13963775055155</v>
+      </c>
+      <c r="I226">
+        <v>-0.23494669920888</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227">
-        <v>37158.16827516113</v>
+        <v>36455.98309698317</v>
       </c>
       <c r="C227">
-        <v>63.08852909212644</v>
+        <v>66.72193212277783</v>
       </c>
       <c r="D227">
-        <v>1811.231724838872</v>
+        <v>2513.416903016827</v>
       </c>
       <c r="E227">
-        <v>1.0673987377156</v>
+        <v>0.94999828374041</v>
       </c>
       <c r="F227">
-        <v>-1415.04061721363</v>
+        <v>-1405.401173085397</v>
       </c>
       <c r="G227">
-        <v>332.6929763081279</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+        <v>329.6764133867655</v>
+      </c>
+      <c r="H227">
+        <v>-1.705101040056018</v>
+      </c>
+      <c r="I227">
+        <v>-0.2328768904030216</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228">
-        <v>37220.96637697773</v>
+        <v>36522.47419245452</v>
       </c>
       <c r="C228">
-        <v>62.79810181659465</v>
+        <v>66.49109547134299</v>
       </c>
       <c r="D228">
-        <v>1748.433623022276</v>
+        <v>2446.925807545485</v>
       </c>
       <c r="E228">
-        <v>1.077067687296457</v>
+        <v>0.9564664758482949</v>
       </c>
       <c r="F228">
-        <v>-1414.678459319069</v>
+        <v>-1405.144282408182</v>
       </c>
       <c r="G228">
-        <v>332.9381374684324</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+        <v>329.9392684866233</v>
+      </c>
+      <c r="H228">
+        <v>-1.272075700579208</v>
+      </c>
+      <c r="I228">
+        <v>-0.2308366514348386</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229">
-        <v>37283.47679209409</v>
+        <v>36588.73646253222</v>
       </c>
       <c r="C229">
-        <v>62.51041511635824</v>
+        <v>66.26227007770603</v>
       </c>
       <c r="D229">
-        <v>1685.923207905915</v>
+        <v>2380.663537467779</v>
       </c>
       <c r="E229">
-        <v>1.086779106347677</v>
+        <v>0.9629457537121234</v>
       </c>
       <c r="F229">
-        <v>-1414.321858518438</v>
+        <v>-1404.891350551972</v>
       </c>
       <c r="G229">
-        <v>333.1819963557883</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+        <v>330.2010060315012</v>
+      </c>
+      <c r="H229">
+        <v>-0.8405484909702015</v>
+      </c>
+      <c r="I229">
+        <v>-0.22882539363696</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230">
-        <v>37345.70222131271</v>
+        <v>36654.77189006648</v>
       </c>
       <c r="C230">
-        <v>62.22542921862069</v>
+        <v>66.0354275342589</v>
       </c>
       <c r="D230">
-        <v>1623.697778687296</v>
+        <v>2314.628109933517</v>
       </c>
       <c r="E230">
-        <v>1.096532997428279</v>
+        <v>0.9694360860575055</v>
       </c>
       <c r="F230">
-        <v>-1413.970702648385</v>
+        <v>-1404.642298075238</v>
       </c>
       <c r="G230">
-        <v>333.4245663521125</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+        <v>330.4616365846274</v>
+      </c>
+      <c r="H230">
+        <v>-0.4105063581658861</v>
+      </c>
+      <c r="I230">
+        <v>-0.2268425434471411</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231">
-        <v>37407.64532645214</v>
+        <v>36720.58243005881</v>
       </c>
       <c r="C231">
-        <v>61.94310513943428</v>
+        <v>65.81053999232699</v>
       </c>
       <c r="D231">
-        <v>1561.754673547861</v>
+        <v>2248.817569941188</v>
       </c>
       <c r="E231">
-        <v>1.106329363056654</v>
+        <v>0.9759374418167586</v>
       </c>
       <c r="F231">
-        <v>-1413.624882423879</v>
+        <v>-1404.397047572382</v>
       </c>
       <c r="G231">
-        <v>333.6658606335644</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+        <v>330.7211705531401</v>
+      </c>
+      <c r="H231">
+        <v>0.01806356653147034</v>
+      </c>
+      <c r="I231">
+        <v>-0.2248875419319081</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232">
-        <v>37469.30873111581</v>
+        <v>36786.17001020681</v>
       </c>
       <c r="C232">
-        <v>61.66340466366829</v>
+        <v>65.58758014799884</v>
       </c>
       <c r="D232">
-        <v>1500.091268884193</v>
+        <v>2183.229989793188</v>
       </c>
       <c r="E232">
-        <v>1.116168205711666</v>
+        <v>0.9824497901271446</v>
       </c>
       <c r="F232">
-        <v>-1413.284291347717</v>
+        <v>-1404.155523609794</v>
       </c>
       <c r="G232">
-        <v>333.9058921747902</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+        <v>330.9796181912432</v>
+      </c>
+      <c r="H232">
+        <v>0.4451739710816902</v>
+      </c>
+      <c r="I232">
+        <v>-0.2229598443281571</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233">
-        <v>37530.69502144141</v>
+        <v>36851.53653143521</v>
       </c>
       <c r="C233">
-        <v>61.38629032560185</v>
+        <v>65.36652122839709</v>
       </c>
       <c r="D233">
-        <v>1438.704978558591</v>
+        <v>2117.863468564792</v>
       </c>
       <c r="E233">
-        <v>1.126049527833716</v>
+        <v>0.9889731003291088</v>
       </c>
       <c r="F233">
-        <v>-1412.948825623393</v>
+        <v>-1403.917652664293</v>
       </c>
       <c r="G233">
-        <v>334.1446737530579</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+        <v>331.2369896032799</v>
+      </c>
+      <c r="H233">
+        <v>0.870837366242208</v>
+      </c>
+      <c r="I233">
+        <v>-0.2210589196017452</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234">
-        <v>37591.80674683153</v>
+        <v>36916.68386841359</v>
       </c>
       <c r="C234">
-        <v>61.11172539011815</v>
+        <v>65.14733697837444</v>
       </c>
       <c r="D234">
-        <v>1377.593253168474</v>
+        <v>2052.716131586414</v>
       </c>
       <c r="E234">
-        <v>1.135973331825776</v>
+        <v>0.9955073419645414</v>
       </c>
       <c r="F234">
-        <v>-1412.618384071236</v>
+        <v>-1403.683363063865</v>
       </c>
       <c r="G234">
-        <v>334.382217952285</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
+        <v>331.4932947467285</v>
+      </c>
+      <c r="H234">
+        <v>1.295066089014497</v>
+      </c>
+      <c r="I234">
+        <v>-0.2191842500226446</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235">
-        <v>37652.646420666</v>
+        <v>36981.61387006121</v>
       </c>
       <c r="C235">
-        <v>60.83967383447784</v>
+        <v>64.93000164761899</v>
       </c>
       <c r="D235">
-        <v>1316.753579333999</v>
+        <v>1987.786129938795</v>
       </c>
       <c r="E235">
-        <v>1.145939620054374</v>
+        <v>1.002052484775025</v>
       </c>
       <c r="F235">
-        <v>-1412.29286804763</v>
+        <v>-1403.452584930565</v>
       </c>
       <c r="G235">
-        <v>334.6185371669612</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
+        <v>331.7485434351206</v>
+      </c>
+      <c r="H235">
+        <v>1.717872306004171</v>
+      </c>
+      <c r="I235">
+        <v>-0.2173353307554446</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236">
-        <v>37713.21652099666</v>
+        <v>37046.32836003936</v>
       </c>
       <c r="C236">
-        <v>60.57010033065027</v>
+        <v>64.71448997815392</v>
       </c>
       <c r="D236">
-        <v>1256.183479003346</v>
+        <v>1923.071639960639</v>
       </c>
       <c r="E236">
-        <v>1.155948394850561</v>
+        <v>1.008608498700108</v>
       </c>
       <c r="F236">
-        <v>-1411.972181367218</v>
+        <v>-1403.225250125525</v>
       </c>
       <c r="G236">
-        <v>334.8536436059728</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+        <v>332.0027453408865</v>
+      </c>
+      <c r="H236">
+        <v>2.139268016697219</v>
+      </c>
+      <c r="I236">
+        <v>-0.21551166946508</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237">
-        <v>37773.51949122484</v>
+        <v>37110.82913723158</v>
       </c>
       <c r="C237">
-        <v>60.30297022818232</v>
+        <v>64.50077719221713</v>
       </c>
       <c r="D237">
-        <v>1195.880508775161</v>
+        <v>1858.570862768422</v>
       </c>
       <c r="E237">
-        <v>1.165999658510831</v>
+        <v>1.015175353875579</v>
       </c>
       <c r="F237">
-        <v>-1411.656230227937</v>
+        <v>-1403.001292195961</v>
       </c>
       <c r="G237">
-        <v>335.0875492963278</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+        <v>332.2559099981291</v>
+      </c>
+      <c r="H237">
+        <v>2.559265056655452</v>
+      </c>
+      <c r="I237">
+        <v>-0.2137127859367851</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238">
-        <v>37833.55774076243</v>
+        <v>37175.11797621209</v>
       </c>
       <c r="C238">
-        <v>60.03824953758535</v>
+        <v>64.28883898050739</v>
       </c>
       <c r="D238">
-        <v>1135.842259237572</v>
+        <v>1794.282023787913</v>
       </c>
       <c r="E238">
-        <v>1.176093413298023</v>
+        <v>1.021753020631752</v>
       </c>
       <c r="F238">
-        <v>-1411.344923138777</v>
+        <v>-1402.780646324089</v>
       </c>
       <c r="G238">
-        <v>335.3202660867879</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+        <v>332.5080468053268</v>
+      </c>
+      <c r="H238">
+        <v>2.977875100632943</v>
+      </c>
+      <c r="I238">
+        <v>-0.211938211709743</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239">
-        <v>37893.33364567665</v>
+        <v>37239.19662770287</v>
       </c>
       <c r="C239">
-        <v>59.77590491422144</v>
+        <v>64.07865149078332</v>
       </c>
       <c r="D239">
-        <v>1076.066354323353</v>
+        <v>1730.203372297132</v>
       </c>
       <c r="E239">
-        <v>1.186229661442179</v>
+        <v>1.028341469491765</v>
       </c>
       <c r="F239">
-        <v>-1411.038170850145</v>
+        <v>-1402.563249277901</v>
       </c>
       <c r="G239">
-        <v>335.5518056514087</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
+        <v>332.7591650279716</v>
+      </c>
+      <c r="H239">
+        <v>3.395109665616442</v>
+      </c>
+      <c r="I239">
+        <v>-0.2101874897240741</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240">
-        <v>37952.84954931932</v>
+        <v>37303.06681901967</v>
       </c>
       <c r="C240">
-        <v>59.51590364267131</v>
+        <v>63.8701913168031</v>
       </c>
       <c r="D240">
-        <v>1016.550450680683</v>
+        <v>1666.333180980328</v>
       </c>
       <c r="E240">
-        <v>1.196408405141385</v>
+        <v>1.034940671169884</v>
       </c>
       <c r="F240">
-        <v>-1410.735886286726</v>
+        <v>-1402.349039363674</v>
       </c>
       <c r="G240">
-        <v>335.7821794929906</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
+        <v>333.0092738011393</v>
+      </c>
+      <c r="H240">
+        <v>3.810980113791613</v>
+      </c>
+      <c r="I240">
+        <v>-0.2084601739802174</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241">
-        <v>38012.10776294088</v>
+        <v>37366.73025450727</v>
       </c>
       <c r="C241">
-        <v>59.25821362156649</v>
+        <v>63.66343548759258</v>
       </c>
       <c r="D241">
-        <v>957.2922370591186</v>
+        <v>1602.669745492734</v>
       </c>
       <c r="E241">
-        <v>1.206629646562583</v>
+        <v>1.04155059656982</v>
       </c>
       <c r="F241">
-        <v>-1410.437984482739</v>
+        <v>-1402.137956380183</v>
       </c>
       <c r="G241">
-        <v>336.0113989464451</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
+        <v>333.2583821319986</v>
+      </c>
+      <c r="H241">
+        <v>4.225497655437673</v>
+      </c>
+      <c r="I241">
+        <v>-0.20675582921052</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242">
-        <v>38071.11056628975</v>
+        <v>37430.1886159643</v>
       </c>
       <c r="C242">
-        <v>59.00280334886959</v>
+        <v>63.45836145703019</v>
       </c>
       <c r="D242">
-        <v>898.289433710248</v>
+        <v>1539.211384035705</v>
       </c>
       <c r="E242">
-        <v>1.216893387842346</v>
+        <v>1.048171216783061</v>
       </c>
       <c r="F242">
-        <v>-1410.144382519474</v>
+        <v>-1401.929941574526</v>
       </c>
       <c r="G242">
-        <v>336.2394751820765</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
+        <v>333.5064989022576</v>
+      </c>
+      <c r="H242">
+        <v>4.638673351752153</v>
+      </c>
+      <c r="I242">
+        <v>-0.2050740305623844</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243">
-        <v>38129.86020819734</v>
+        <v>37493.44356305803</v>
       </c>
       <c r="C243">
-        <v>58.74964190758674</v>
+        <v>63.25494709373764</v>
       </c>
       <c r="D243">
-        <v>839.5397918026647</v>
+        <v>1475.956436941968</v>
       </c>
       <c r="E243">
-        <v>1.227199631087642</v>
+        <v>1.054802503087205</v>
       </c>
       <c r="F243">
-        <v>-1409.854999465039</v>
+        <v>-1401.724937599504</v>
       </c>
       <c r="G243">
-        <v>336.4664192087834</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
+        <v>333.7536328705507</v>
+      </c>
+      <c r="H243">
+        <v>5.050518117608272</v>
+      </c>
+      <c r="I243">
+        <v>-0.2034143632925502</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244">
-        <v>38188.35890714923</v>
+        <v>37556.4967337293</v>
       </c>
       <c r="C244">
-        <v>58.4986989518972</v>
+        <v>63.05317067126562</v>
       </c>
       <c r="D244">
-        <v>781.0410928507699</v>
+        <v>1412.903266270703</v>
       </c>
       <c r="E244">
-        <v>1.23754837837656</v>
+        <v>1.06144442694432</v>
       </c>
       <c r="F244">
-        <v>-1409.569756316208</v>
+        <v>-1401.522888472488</v>
       </c>
       <c r="G244">
-        <v>336.6922418771813</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
+        <v>333.9997926747685</v>
+      </c>
+      <c r="H244">
+        <v>5.461042724246628</v>
+      </c>
+      <c r="I244">
+        <v>-0.2017764224720224</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245">
-        <v>38246.60885184292</v>
+        <v>37619.34974458786</v>
       </c>
       <c r="C245">
-        <v>58.24994469368561</v>
+        <v>62.85301085856443</v>
       </c>
       <c r="D245">
-        <v>722.7911481570845</v>
+        <v>1350.050255412141</v>
       </c>
       <c r="E245">
-        <v>1.247939631759025</v>
+        <v>1.0680969599993</v>
       </c>
       <c r="F245">
-        <v>-1409.288575942295</v>
+        <v>-1401.323739535709</v>
       </c>
       <c r="G245">
-        <v>336.9169538826498</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
+        <v>334.2449868343308</v>
+      </c>
+      <c r="H245">
+        <v>5.870257801903135</v>
+      </c>
+      <c r="I245">
+        <v>-0.2001598127011857</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246">
-        <v>38304.61220173238</v>
+        <v>37682.00419129859</v>
       </c>
       <c r="C246">
-        <v>58.00334988946295</v>
+        <v>62.65444671072959</v>
       </c>
       <c r="D246">
-        <v>664.7877982676218</v>
+        <v>1287.395808701411</v>
       </c>
       <c r="E246">
-        <v>1.258373393257483</v>
+        <v>1.07476007407825</v>
       </c>
       <c r="F246">
-        <v>-1409.011383030968</v>
+        <v>-1401.12743741793</v>
       </c>
       <c r="G246">
-        <v>337.1405657683052</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
+        <v>334.4892237524058</v>
+      </c>
+      <c r="H246">
+        <v>6.278173842375201</v>
+      </c>
+      <c r="I246">
+        <v>-0.1985641478348423</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247">
-        <v>38362.37108756004</v>
+        <v>37744.4616489586</v>
       </c>
       <c r="C247">
-        <v>57.758885827663</v>
+        <v>62.45745766001305</v>
       </c>
       <c r="D247">
-        <v>607.0289124399569</v>
+        <v>1224.938351041397</v>
       </c>
       <c r="E247">
-        <v>1.26884966486756</v>
+        <v>1.081433741186864</v>
       </c>
       <c r="F247">
-        <v>-1408.738104035921</v>
+        <v>-1400.933929997416</v>
       </c>
       <c r="G247">
-        <v>337.3630879279017</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
+        <v>334.7325117180758</v>
+      </c>
+      <c r="H247">
+        <v>6.684801201527844</v>
+      </c>
+      <c r="I247">
+        <v>-0.1969890507165388</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248">
-        <v>38419.88761187634</v>
+        <v>37806.7236724657</v>
       </c>
       <c r="C248">
-        <v>57.51652431630129</v>
+        <v>62.26202350709092</v>
       </c>
       <c r="D248">
-        <v>549.5123881236577</v>
+        <v>1162.676327534304</v>
       </c>
       <c r="E248">
-        <v>1.279368448558713</v>
+        <v>1.088117933508837</v>
       </c>
       <c r="F248">
-        <v>-1408.468667126339</v>
+        <v>-1400.743166366193</v>
       </c>
       <c r="G248">
-        <v>337.5845306086631</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
+        <v>334.9748589084518</v>
+      </c>
+      <c r="H248">
+        <v>7.09015010174133</v>
+      </c>
+      <c r="I248">
+        <v>-0.1954341529221235</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249">
-        <v>38477.16384954733</v>
+        <v>37868.79179687828</v>
       </c>
       <c r="C249">
-        <v>57.27623767098441</v>
+        <v>62.06812441257918</v>
       </c>
       <c r="D249">
-        <v>492.2361504526707</v>
+        <v>1100.608203121723</v>
       </c>
       <c r="E249">
-        <v>1.289929746274848</v>
+        <v>1.094812623404268</v>
       </c>
       <c r="F249">
-        <v>-1408.203002138076</v>
+        <v>-1400.555096795483</v>
       </c>
       <c r="G249">
-        <v>337.8049039140466</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
+        <v>335.216273390739</v>
+      </c>
+      <c r="H249">
+        <v>7.494230634302368</v>
+      </c>
+      <c r="I249">
+        <v>-0.1938990945117389</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250">
-        <v>38534.20184825059</v>
+        <v>37930.66753776707</v>
       </c>
       <c r="C250">
-        <v>57.03799870325783</v>
+        <v>61.87574088878871</v>
       </c>
       <c r="D250">
-        <v>435.1981517494132</v>
+        <v>1038.732462232932</v>
       </c>
       <c r="E250">
-        <v>1.300533559934927</v>
+        <v>1.101517783408099</v>
       </c>
       <c r="F250">
-        <v>-1407.941040526489</v>
+        <v>-1400.369672702352</v>
       </c>
       <c r="G250">
-        <v>338.0242178064414</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
+        <v>335.4567631242522</v>
+      </c>
+      <c r="H250">
+        <v>7.897052761740017</v>
+      </c>
+      <c r="I250">
+        <v>-0.1923835237904719</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251">
-        <v>38591.00362895987</v>
+        <v>37992.35239155878</v>
       </c>
       <c r="C251">
-        <v>56.80178070928074</v>
+        <v>61.68485379171195</v>
       </c>
       <c r="D251">
-        <v>378.3963710401295</v>
+        <v>977.0476084412221</v>
       </c>
       <c r="E251">
-        <v>1.311179891433553</v>
+        <v>1.108233386228545</v>
       </c>
       <c r="F251">
-        <v>-1407.682715320844</v>
+        <v>-1400.186846617433</v>
       </c>
       <c r="G251">
-        <v>338.2424821098033</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
+        <v>335.6963359623863</v>
+      </c>
+      <c r="H251">
+        <v>8.298626320108268</v>
+      </c>
+      <c r="I251">
+        <v>-0.1908870970767609</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252">
-        <v>38647.57118641869</v>
+        <v>38053.84783587201</v>
       </c>
       <c r="C252">
-        <v>56.56755745881721</v>
+        <v>61.49544431323326</v>
       </c>
       <c r="D252">
-        <v>321.8288135813127</v>
+        <v>915.552164127992</v>
       </c>
       <c r="E252">
-        <v>1.321868742641535</v>
+        <v>1.114959404745554</v>
       </c>
       <c r="F252">
-        <v>-1407.427961080258</v>
+        <v>-1400.006572153752</v>
       </c>
       <c r="G252">
-        <v>338.459706512227</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
+        <v>335.9349996545389</v>
+      </c>
+      <c r="H252">
+        <v>8.698961021216467</v>
+      </c>
+      <c r="I252">
+        <v>-0.1894094784786855</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253">
-        <v>38703.90648960322</v>
+        <v>38115.15532984556</v>
       </c>
       <c r="C253">
-        <v>56.33530318453306</v>
+        <v>61.30749397355566</v>
       </c>
       <c r="D253">
-        <v>265.49351039678</v>
+        <v>854.2446701544395</v>
       </c>
       <c r="E253">
-        <v>1.332600115406439</v>
+        <v>1.121695812009272</v>
       </c>
       <c r="F253">
-        <v>-1407.176713851094</v>
+        <v>-1399.828803976584</v>
       </c>
       <c r="G253">
-        <v>338.6759005684593</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
+        <v>336.1727618479903</v>
+      </c>
+      <c r="H253">
+        <v>9.098066454809331</v>
+      </c>
+      <c r="I253">
+        <v>-0.1879503396776059</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254">
-        <v>38760.01148217481</v>
+        <v>38176.2763144594</v>
       </c>
       <c r="C254">
-        <v>56.10499257158838</v>
+        <v>61.12098461383674</v>
       </c>
       <c r="D254">
-        <v>209.3885178251949</v>
+        <v>793.1236855406023</v>
       </c>
       <c r="E254">
-        <v>1.343374011553123</v>
+        <v>1.128442581238521</v>
       </c>
       <c r="F254">
-        <v>-1406.928911125768</v>
+        <v>-1399.653497774299</v>
       </c>
       <c r="G254">
-        <v>338.8910737023528</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
+        <v>336.4096300897395</v>
+      </c>
+      <c r="H254">
+        <v>9.495952090697687</v>
+      </c>
+      <c r="I254">
+        <v>-0.1865093597189205</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255">
-        <v>38815.88808292232</v>
+        <v>38237.21221284843</v>
       </c>
       <c r="C255">
-        <v>55.87660074751594</v>
+        <v>60.93589838902702</v>
       </c>
       <c r="D255">
-        <v>153.5119170776816</v>
+        <v>732.1877871515753</v>
       </c>
       <c r="E255">
-        <v>1.354190432884253</v>
+        <v>1.135199685819295</v>
       </c>
       <c r="F255">
-        <v>-1406.684491802911</v>
+        <v>-1399.480610230167</v>
       </c>
       <c r="G255">
-        <v>339.105235209263</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
+        <v>336.6456118282978</v>
+      </c>
+      <c r="H255">
+        <v>9.89262728084149</v>
+      </c>
+      <c r="I255">
+        <v>-0.1850862248097247</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256">
-        <v>38871.5381861947</v>
+        <v>38297.96443060933</v>
       </c>
       <c r="C256">
-        <v>55.65010327237639</v>
+        <v>60.75221776090397</v>
       </c>
       <c r="D256">
-        <v>97.86181380530616</v>
+        <v>671.4355693906691</v>
       </c>
       <c r="E256">
-        <v>1.365049381180804</v>
+        <v>1.141967099303268</v>
       </c>
       <c r="F256">
-        <v>-1406.443396148826</v>
+        <v>-1399.310098995086</v>
       </c>
       <c r="G256">
-        <v>339.3183942583909</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+        <v>336.8807144154426</v>
+      </c>
+      <c r="H256">
+        <v>10.28810126138628</v>
+      </c>
+      <c r="I256">
+        <v>-0.1836806281230441</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257">
-        <v>38926.96366232388</v>
+        <v>38358.53435610063</v>
       </c>
       <c r="C257">
-        <v>55.42547612918091</v>
+        <v>60.56992549129559</v>
       </c>
       <c r="D257">
-        <v>42.43633767612482</v>
+        <v>610.8656438993712</v>
       </c>
       <c r="E257">
-        <v>1.375950858202548</v>
+        <v>1.148744795406312</v>
       </c>
       <c r="F257">
-        <v>-1406.205565760202</v>
+        <v>-1399.141922661192</v>
       </c>
       <c r="G257">
-        <v>339.5305598950707</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+        <v>337.1149451079315</v>
+      </c>
+      <c r="H257">
+        <v>10.68238315465456</v>
+      </c>
+      <c r="I257">
+        <v>-0.182292269608384</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258">
-        <v>38982.16635803845</v>
+        <v>38418.92336073612</v>
       </c>
       <c r="C258">
-        <v>55.20269571457303</v>
+        <v>60.3890046354871</v>
       </c>
       <c r="D258">
-        <v>-12.76635803844692</v>
+        <v>550.4766392638849</v>
       </c>
       <c r="E258">
-        <v>1.386894865688524</v>
+        <v>1.155532748007036</v>
       </c>
       <c r="F258">
-        <v>-1405.97094352803</v>
+        <v>-1398.976040736331</v>
       </c>
       <c r="G258">
-        <v>339.5305598950707</v>
+        <v>337.3483110691762</v>
+      </c>
+      <c r="H258">
+        <v>11.07548197109308</v>
+      </c>
+      <c r="I258">
+        <v>-0.1809208558084858</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>38479.13279927192</v>
+      </c>
+      <c r="C259">
+        <v>60.20943853580532</v>
+      </c>
+      <c r="D259">
+        <v>490.267200728078</v>
+      </c>
+      <c r="E259">
+        <v>1.162330931145325</v>
+      </c>
+      <c r="F259">
+        <v>-1398.812413619325</v>
+      </c>
+      <c r="G259">
+        <v>337.580819370881</v>
+      </c>
+      <c r="H259">
+        <v>11.46740661117739</v>
+      </c>
+      <c r="I259">
+        <v>-0.1795660996817823</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>38539.1640100873</v>
+      </c>
+      <c r="C260">
+        <v>60.03121081537456</v>
+      </c>
+      <c r="D260">
+        <v>430.2359899127041</v>
+      </c>
+      <c r="E260">
+        <v>1.169139319020909</v>
+      </c>
+      <c r="F260">
+        <v>-1398.651002576071</v>
+      </c>
+      <c r="G260">
+        <v>337.8124769946439</v>
+      </c>
+      <c r="H260">
+        <v>11.85816586727477</v>
+      </c>
+      <c r="I260">
+        <v>-0.1782277204307601</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>38599.01831545934</v>
+      </c>
+      <c r="C261">
+        <v>59.85430537203894</v>
+      </c>
+      <c r="D261">
+        <v>370.3816845406618</v>
+      </c>
+      <c r="E261">
+        <v>1.175957885991941</v>
+      </c>
+      <c r="F261">
+        <v>-1398.491769716366</v>
+      </c>
+      <c r="G261">
+        <v>338.0432908335215</v>
+      </c>
+      <c r="H261">
+        <v>12.24776842546655</v>
+      </c>
+      <c r="I261">
+        <v>-0.1769054433356168</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>38658.69702183179</v>
+      </c>
+      <c r="C262">
+        <v>59.67870637244584</v>
+      </c>
+      <c r="D262">
+        <v>310.702978168214</v>
+      </c>
+      <c r="E262">
+        <v>1.182786606573572</v>
+      </c>
+      <c r="F262">
+        <v>-1398.334677971467</v>
+      </c>
+      <c r="G262">
+        <v>338.2732676935607</v>
+      </c>
+      <c r="H262">
+        <v>12.6362228673311</v>
+      </c>
+      <c r="I262">
+        <v>-0.1755989995931007</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>38718.20142007808</v>
+      </c>
+      <c r="C263">
+        <v>59.50439824628521</v>
+      </c>
+      <c r="D263">
+        <v>251.1985799219256</v>
+      </c>
+      <c r="E263">
+        <v>1.189625455436568</v>
+      </c>
+      <c r="F263">
+        <v>-1398.179691072377</v>
+      </c>
+      <c r="G263">
+        <v>338.5024142952956</v>
+      </c>
+      <c r="H263">
+        <v>13.02353767168829</v>
+      </c>
+      <c r="I263">
+        <v>-0.1743081261606267</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>38777.53278575875</v>
+      </c>
+      <c r="C264">
+        <v>59.33136568068008</v>
+      </c>
+      <c r="D264">
+        <v>191.867214241247</v>
+      </c>
+      <c r="E264">
+        <v>1.196474407405918</v>
+      </c>
+      <c r="F264">
+        <v>-1398.026773528801</v>
+      </c>
+      <c r="G264">
+        <v>338.7307372752127</v>
+      </c>
+      <c r="H264">
+        <v>13.4097212163067</v>
+      </c>
+      <c r="I264">
+        <v>-0.1730325656051317</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>38836.69237937347</v>
+      </c>
+      <c r="C265">
+        <v>59.15959361472353</v>
+      </c>
+      <c r="D265">
+        <v>132.7076206265265</v>
+      </c>
+      <c r="E265">
+        <v>1.20333343745946</v>
+      </c>
+      <c r="F265">
+        <v>-1397.87589060874</v>
+      </c>
+      <c r="G265">
+        <v>338.9582431871831</v>
+      </c>
+      <c r="H265">
+        <v>13.79478177957431</v>
+      </c>
+      <c r="I265">
+        <v>-0.1717720659565511</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>38895.68144660763</v>
+      </c>
+      <c r="C266">
+        <v>58.98906723415742</v>
+      </c>
+      <c r="D266">
+        <v>73.71855339236936</v>
+      </c>
+      <c r="E266">
+        <v>1.210202520726535</v>
+      </c>
+      <c r="F266">
+        <v>-1397.727008318757</v>
+      </c>
+      <c r="G266">
+        <v>339.1849385038645</v>
+      </c>
+      <c r="H266">
+        <v>14.17872754213384</v>
+      </c>
+      <c r="I266">
+        <v>-0.1705263805661001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>38954.50121857382</v>
+      </c>
+      <c r="C267">
+        <v>58.81977196618885</v>
+      </c>
+      <c r="D267">
+        <v>14.89878142617818</v>
+      </c>
+      <c r="E267">
+        <v>1.217081632486629</v>
+      </c>
+      <c r="F267">
+        <v>-1397.580093384807</v>
+      </c>
+      <c r="G267">
+        <v>339.4108296180733</v>
+      </c>
+      <c r="H267">
+        <v>14.56156658848352</v>
+      </c>
+      <c r="I267">
+        <v>-0.1692952679685682</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>39013.15291204827</v>
+      </c>
+      <c r="C268">
+        <v>58.6516934744397</v>
+      </c>
+      <c r="D268">
+        <v>-43.75291204826499</v>
+      </c>
+      <c r="E268">
+        <v>1.223970748168054</v>
+      </c>
+      <c r="F268">
+        <v>-1397.435113233689</v>
+      </c>
+      <c r="G268">
+        <v>339.6359228441259</v>
+      </c>
+      <c r="H268">
+        <v>14.9433069085441</v>
+      </c>
+      <c r="I268">
+        <v>-0.1680784917491494</v>
       </c>
     </row>
   </sheetData>
